--- a/output.xlsx
+++ b/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -459,64 +459,64 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Vargas Amaya Paula</v>
+        <v>Restrepo Coronado Yiseth Margarita</v>
       </c>
       <c r="B2" t="str">
         <v/>
       </c>
       <c r="C2" t="str">
-        <v>Calle 23 a 2 a-38 sur</v>
+        <v>Urbanización Terranova Mz A cs 9</v>
       </c>
       <c r="D2" t="str">
-        <v>Pitalito</v>
+        <v xml:space="preserve">Santa Marta </v>
       </c>
       <c r="E2" t="str">
-        <v>Huila</v>
+        <v>Magdalena</v>
       </c>
       <c r="F2" t="str">
-        <v>Casa rejas</v>
+        <v/>
       </c>
       <c r="G2" t="str">
         <v>servientrega</v>
       </c>
       <c r="H2" t="str">
-        <v>3012904420</v>
+        <v>318 8778852</v>
       </c>
       <c r="I2" t="str">
-        <v>Set deportivo Ref R002 - S-M</v>
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
       </c>
       <c r="J2" t="str">
-        <v>99900</v>
+        <v>29900.00</v>
       </c>
       <c r="K2" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" t="str">
-        <v>27/10/2021 12:57</v>
+        <v>2021-12-23 10:43:32 -0500</v>
       </c>
       <c r="M2" t="str">
         <v>10</v>
       </c>
       <c r="N2" t="str">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O2" t="str">
         <v>10</v>
       </c>
       <c r="P2" t="str">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q2" t="str">
-        <v>99900</v>
+        <v>49900.00</v>
       </c>
       <c r="R2" t="str">
-        <v>99900</v>
+        <v>49900.00</v>
       </c>
       <c r="S2" t="str">
         <v/>
       </c>
       <c r="T2" t="str">
-        <v>SI</v>
+        <v>NO</v>
       </c>
       <c r="U2" t="str">
         <v>cra 26A#45-56</v>
@@ -536,58 +536,58 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Magaly Páez</v>
+        <v>Paula Andrea  Bastidas Coral</v>
       </c>
       <c r="B3" t="str">
         <v/>
       </c>
       <c r="C3" t="str">
-        <v>Cr 6#7-03</v>
+        <v>Av. Panamericana#7-62</v>
       </c>
       <c r="D3" t="str">
-        <v>Zipaquira</v>
+        <v xml:space="preserve">Ipiales </v>
       </c>
       <c r="E3" t="str">
-        <v>Cundinamarca</v>
+        <v>Nariño</v>
       </c>
       <c r="F3" t="str">
-        <v>Muebles El Triunfo</v>
+        <v>Repuestos Los Trailers</v>
       </c>
       <c r="G3" t="str">
         <v>servientrega</v>
       </c>
       <c r="H3" t="str">
-        <v>21841681</v>
+        <v>311 7789609</v>
       </c>
       <c r="I3" t="str">
-        <v>Set deportivo Ref A003 - S-M</v>
+        <v>GRIFO TELEDUCHA</v>
       </c>
       <c r="J3" t="str">
-        <v>99900</v>
+        <v>74900.00</v>
       </c>
       <c r="K3" t="str">
         <v>1</v>
       </c>
       <c r="L3" t="str">
-        <v>27/10/2021 11:58</v>
+        <v>2021-12-23 14:37:46 -0500</v>
       </c>
       <c r="M3" t="str">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N3" t="str">
         <v>20</v>
       </c>
       <c r="O3" t="str">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P3" t="str">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q3" t="str">
-        <v>99900</v>
+        <v>74900.00</v>
       </c>
       <c r="R3" t="str">
-        <v>99900</v>
+        <v>74900.00</v>
       </c>
       <c r="S3" t="str">
         <v/>
@@ -613,58 +613,58 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Jiménez torres María camila</v>
+        <v>Karina yelena Toro brito</v>
       </c>
       <c r="B4" t="str">
         <v/>
       </c>
       <c r="C4" t="str">
-        <v>Calle 19 Sur 69 55 Int 4 Apt 302</v>
+        <v>José Antonio Galán</v>
       </c>
       <c r="D4" t="str">
-        <v>Bogota</v>
+        <v xml:space="preserve">Riohacha </v>
       </c>
       <c r="E4" t="str">
-        <v>Bogotá</v>
+        <v>La Guajira</v>
       </c>
       <c r="F4" t="str">
-        <v/>
+        <v>Calle 11B 18 42 Casa 10</v>
       </c>
       <c r="G4" t="str">
         <v>servientrega</v>
       </c>
       <c r="H4" t="str">
-        <v>30124652</v>
+        <v>300 6352612</v>
       </c>
       <c r="I4" t="str">
-        <v>Set deportivo Ref R002 - S-M</v>
+        <v>GRIFO TELEDUCHA</v>
       </c>
       <c r="J4" t="str">
-        <v>99900</v>
+        <v>74900.00</v>
       </c>
       <c r="K4" t="str">
         <v>1</v>
       </c>
       <c r="L4" t="str">
-        <v>27/10/2021 10:18</v>
+        <v>2021-12-23 16:39:55 -0500</v>
       </c>
       <c r="M4" t="str">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N4" t="str">
         <v>20</v>
       </c>
       <c r="O4" t="str">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P4" t="str">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q4" t="str">
-        <v>99900</v>
+        <v>74900.00</v>
       </c>
       <c r="R4" t="str">
-        <v>99900</v>
+        <v>74900.00</v>
       </c>
       <c r="S4" t="str">
         <v/>
@@ -690,64 +690,64 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Sánchez Gabriela</v>
+        <v>Luz Amanda Maldonado</v>
       </c>
       <c r="B5" t="str">
         <v/>
       </c>
       <c r="C5" t="str">
-        <v>Cra 13b 16a 2</v>
+        <v>Calle 35 A No .17-10 este</v>
       </c>
       <c r="D5" t="str">
-        <v>Florencia</v>
+        <v xml:space="preserve">Villavicencio </v>
       </c>
       <c r="E5" t="str">
-        <v>Caquetá</v>
+        <v>Meta</v>
       </c>
       <c r="F5" t="str">
-        <v/>
+        <v>Mz B cs 2 Antonio villavicencio</v>
       </c>
       <c r="G5" t="str">
         <v>servientrega</v>
       </c>
       <c r="H5" t="str">
-        <v>252522</v>
+        <v>'+57 311 4802287</v>
       </c>
       <c r="I5" t="str">
-        <v>Leggins Ref L002R - S-M</v>
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
       </c>
       <c r="J5" t="str">
-        <v>59900</v>
+        <v>29900.00</v>
       </c>
       <c r="K5" t="str">
         <v>1</v>
       </c>
       <c r="L5" t="str">
-        <v>26/10/2021 23:30</v>
+        <v>2021-12-25 02:51:06 -0500</v>
       </c>
       <c r="M5" t="str">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N5" t="str">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O5" t="str">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P5" t="str">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q5" t="str">
-        <v>68900</v>
+        <v>29900.00</v>
       </c>
       <c r="R5" t="str">
-        <v>68900</v>
+        <v>29900.00</v>
       </c>
       <c r="S5" t="str">
         <v/>
       </c>
       <c r="T5" t="str">
-        <v>SI</v>
+        <v>NO</v>
       </c>
       <c r="U5" t="str">
         <v>cra 26A#45-56</v>
@@ -767,84 +767,3549 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Orozco Sandra</v>
+        <v>Mónica Posada Alcalá</v>
       </c>
       <c r="B6" t="str">
         <v/>
       </c>
       <c r="C6" t="str">
-        <v>San Mateo</v>
+        <v>Cra 15D No. 39A-27</v>
       </c>
       <c r="D6" t="str">
-        <v>Yopal</v>
+        <v xml:space="preserve">Monteria </v>
       </c>
       <c r="E6" t="str">
-        <v>Casanare</v>
+        <v>Córdoba</v>
       </c>
       <c r="F6" t="str">
-        <v>Calle 39 12 08</v>
+        <v/>
       </c>
       <c r="G6" t="str">
         <v>servientrega</v>
       </c>
       <c r="H6" t="str">
-        <v xml:space="preserve">3012904420 </v>
+        <v>316 3185303</v>
       </c>
       <c r="I6" t="str">
-        <v>Set deportivo Ref G002 - S-M</v>
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
       </c>
       <c r="J6" t="str">
-        <v>99900</v>
+        <v>29900.00</v>
       </c>
       <c r="K6" t="str">
         <v>1</v>
       </c>
       <c r="L6" t="str">
-        <v>26/10/2021 22:12</v>
+        <v>2021-12-25 06:20:24 -0500</v>
       </c>
       <c r="M6" t="str">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="N6" t="str">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O6" t="str">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="P6" t="str">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="Q6" t="str">
-        <v>99900</v>
+        <v>29900.00</v>
       </c>
       <c r="R6" t="str">
-        <v>99900</v>
+        <v>29900.00</v>
       </c>
       <c r="S6" t="str">
         <v/>
       </c>
       <c r="T6" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U6" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V6" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W6" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X6" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y6" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Rubiela Rojas</v>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v>Kra 4a# 8 -38</v>
+      </c>
+      <c r="D7" t="str">
+        <v xml:space="preserve">Santa rosa de cabal </v>
+      </c>
+      <c r="E7" t="str">
+        <v>Risaralda</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Cerros de la  traviata   santa rosa de cabal</v>
+      </c>
+      <c r="G7" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H7" t="str">
+        <v>312 8870268</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J7" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K7" t="str">
+        <v>1</v>
+      </c>
+      <c r="L7" t="str">
+        <v>2021-12-25 07:47:59 -0500</v>
+      </c>
+      <c r="M7" t="str">
+        <v>10</v>
+      </c>
+      <c r="N7" t="str">
+        <v>20</v>
+      </c>
+      <c r="O7" t="str">
+        <v>10</v>
+      </c>
+      <c r="P7" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R7" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S7" t="str">
+        <v/>
+      </c>
+      <c r="T7" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U7" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V7" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W7" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X7" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y7" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Nora Beatriz Urdinola Calderón</v>
+      </c>
+      <c r="B8" t="str">
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <v>Calle 49# T 39-38 juan Pablo ll</v>
+      </c>
+      <c r="D8" t="str">
+        <v xml:space="preserve">Palmira </v>
+      </c>
+      <c r="E8" t="str">
+        <v>Valle del Cauca</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="G8" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H8" t="str">
+        <v>'+57 315 5204389</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J8" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K8" t="str">
+        <v>1</v>
+      </c>
+      <c r="L8" t="str">
+        <v>2021-12-25 07:48:08 -0500</v>
+      </c>
+      <c r="M8" t="str">
+        <v>10</v>
+      </c>
+      <c r="N8" t="str">
+        <v>20</v>
+      </c>
+      <c r="O8" t="str">
+        <v>10</v>
+      </c>
+      <c r="P8" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R8" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S8" t="str">
+        <v/>
+      </c>
+      <c r="T8" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U8" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V8" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W8" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X8" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y8" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Andres Felipe Osorio blanco</v>
+      </c>
+      <c r="B9" t="str">
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <v>Cra 19 a calle 19b -48</v>
+      </c>
+      <c r="D9" t="str">
+        <v xml:space="preserve">Barbosa </v>
+      </c>
+      <c r="E9" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Interior 301</v>
+      </c>
+      <c r="G9" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H9" t="str">
+        <v>3105109643</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J9" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K9" t="str">
+        <v>1</v>
+      </c>
+      <c r="L9" t="str">
+        <v>2021-12-25 13:17:24 -0500</v>
+      </c>
+      <c r="M9" t="str">
+        <v>10</v>
+      </c>
+      <c r="N9" t="str">
+        <v>20</v>
+      </c>
+      <c r="O9" t="str">
+        <v>10</v>
+      </c>
+      <c r="P9" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R9" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S9" t="str">
+        <v/>
+      </c>
+      <c r="T9" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U9" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V9" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W9" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X9" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y9" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Hilda Novoa de Rodriguez</v>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <v>Edifício Dimell</v>
+      </c>
+      <c r="D10" t="str">
+        <v xml:space="preserve">Villavicencio </v>
+      </c>
+      <c r="E10" t="str">
+        <v>Meta</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Calle 33B # 36-37</v>
+      </c>
+      <c r="G10" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H10" t="str">
+        <v>310 5678092</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J10" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K10" t="str">
+        <v>2</v>
+      </c>
+      <c r="L10" t="str">
+        <v>2021-12-25 16:49:25 -0500</v>
+      </c>
+      <c r="M10" t="str">
+        <v>10</v>
+      </c>
+      <c r="N10" t="str">
+        <v>20</v>
+      </c>
+      <c r="O10" t="str">
+        <v>10</v>
+      </c>
+      <c r="P10" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="R10" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="S10" t="str">
+        <v/>
+      </c>
+      <c r="T10" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U10" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V10" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W10" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X10" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y10" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Claudia Gonzalez</v>
+      </c>
+      <c r="B11" t="str">
+        <v/>
+      </c>
+      <c r="C11" t="str">
+        <v>Calle 20sur numero 39a 72</v>
+      </c>
+      <c r="D11" t="str">
+        <v xml:space="preserve">Medellin </v>
+      </c>
+      <c r="E11" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="F11" t="str">
+        <v>607</v>
+      </c>
+      <c r="G11" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H11" t="str">
+        <v>304 5370870</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J11" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K11" t="str">
+        <v>1</v>
+      </c>
+      <c r="L11" t="str">
+        <v>2021-12-25 17:58:45 -0500</v>
+      </c>
+      <c r="M11" t="str">
+        <v>10</v>
+      </c>
+      <c r="N11" t="str">
+        <v>20</v>
+      </c>
+      <c r="O11" t="str">
+        <v>10</v>
+      </c>
+      <c r="P11" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R11" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S11" t="str">
+        <v/>
+      </c>
+      <c r="T11" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U11" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V11" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W11" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X11" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y11" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Isabel Vélez</v>
+      </c>
+      <c r="B12" t="str">
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <v>Conjunto senderos del bosque Carrera 22 No 26-08 casa 43</v>
+      </c>
+      <c r="D12" t="str">
+        <v xml:space="preserve">Armenia </v>
+      </c>
+      <c r="E12" t="str">
+        <v>Quindío</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Frente a la caseta comunal  del barrio berlin</v>
+      </c>
+      <c r="G12" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H12" t="str">
+        <v>313 7338934</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J12" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K12" t="str">
+        <v>1</v>
+      </c>
+      <c r="L12" t="str">
+        <v>2021-12-25 20:38:05 -0500</v>
+      </c>
+      <c r="M12" t="str">
+        <v>10</v>
+      </c>
+      <c r="N12" t="str">
+        <v>20</v>
+      </c>
+      <c r="O12" t="str">
+        <v>10</v>
+      </c>
+      <c r="P12" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q12" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R12" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S12" t="str">
+        <v/>
+      </c>
+      <c r="T12" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U12" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V12" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W12" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X12" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y12" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>María  Siado Cantillo</v>
+      </c>
+      <c r="B13" t="str">
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <v>Calle 3#7B-35, Barrio Santander</v>
+      </c>
+      <c r="D13" t="str">
+        <v xml:space="preserve">Santa Ana </v>
+      </c>
+      <c r="E13" t="str">
+        <v>Magdalena</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="G13" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H13" t="str">
+        <v>310 6551871</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J13" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K13" t="str">
+        <v>2</v>
+      </c>
+      <c r="L13" t="str">
+        <v>2021-12-25 21:11:15 -0500</v>
+      </c>
+      <c r="M13" t="str">
+        <v>10</v>
+      </c>
+      <c r="N13" t="str">
+        <v>20</v>
+      </c>
+      <c r="O13" t="str">
+        <v>10</v>
+      </c>
+      <c r="P13" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q13" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="R13" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="S13" t="str">
+        <v/>
+      </c>
+      <c r="T13" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U13" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V13" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W13" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X13" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y13" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Luz Estella Lopez G.</v>
+      </c>
+      <c r="B14" t="str">
+        <v/>
+      </c>
+      <c r="C14" t="str">
+        <v>Km7 via llanogrande apto 214</v>
+      </c>
+      <c r="D14" t="str">
+        <v xml:space="preserve">Rionegro </v>
+      </c>
+      <c r="E14" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H14" t="str">
+        <v>312 7102304</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J14" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K14" t="str">
+        <v>1</v>
+      </c>
+      <c r="L14" t="str">
+        <v>2021-12-25 21:40:44 -0500</v>
+      </c>
+      <c r="M14" t="str">
+        <v>10</v>
+      </c>
+      <c r="N14" t="str">
+        <v>20</v>
+      </c>
+      <c r="O14" t="str">
+        <v>10</v>
+      </c>
+      <c r="P14" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q14" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R14" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S14" t="str">
+        <v/>
+      </c>
+      <c r="T14" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U14" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V14" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W14" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X14" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y14" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Sonia Rosero</v>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <v>Calle 4 #38d-50</v>
+      </c>
+      <c r="D15" t="str">
+        <v xml:space="preserve">Cali </v>
+      </c>
+      <c r="E15" t="str">
+        <v>Valle del Cauca</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Casa puso 2</v>
+      </c>
+      <c r="G15" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H15" t="str">
+        <v>318 5820271</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J15" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K15" t="str">
+        <v>2</v>
+      </c>
+      <c r="L15" t="str">
+        <v>2021-12-25 22:59:40 -0500</v>
+      </c>
+      <c r="M15" t="str">
+        <v>10</v>
+      </c>
+      <c r="N15" t="str">
+        <v>20</v>
+      </c>
+      <c r="O15" t="str">
+        <v>10</v>
+      </c>
+      <c r="P15" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="R15" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="S15" t="str">
+        <v/>
+      </c>
+      <c r="T15" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U15" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V15" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W15" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X15" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y15" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Ariel Montoya Valderrama Montoya valderrama</v>
+      </c>
+      <c r="B16" t="str">
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <v>Calle38A#54-19 baden baden del rio</v>
+      </c>
+      <c r="D16" t="str">
+        <v xml:space="preserve">Rionegro </v>
+      </c>
+      <c r="E16" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Casa 3</v>
+      </c>
+      <c r="G16" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H16" t="str">
+        <v>315 5854188</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J16" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K16" t="str">
+        <v>2</v>
+      </c>
+      <c r="L16" t="str">
+        <v>2021-12-26 04:35:38 -0500</v>
+      </c>
+      <c r="M16" t="str">
+        <v>10</v>
+      </c>
+      <c r="N16" t="str">
+        <v>20</v>
+      </c>
+      <c r="O16" t="str">
+        <v>10</v>
+      </c>
+      <c r="P16" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="R16" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="S16" t="str">
+        <v/>
+      </c>
+      <c r="T16" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U16" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V16" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W16" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X16" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y16" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Alba Galvis</v>
+      </c>
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <v>Carrera 12 10 50</v>
+      </c>
+      <c r="D17" t="str">
+        <v xml:space="preserve">BogotÁ </v>
+      </c>
+      <c r="E17" t="str">
+        <v>Cundinamarca</v>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H17" t="str">
+        <v>311 5177213</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J17" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K17" t="str">
+        <v>2</v>
+      </c>
+      <c r="L17" t="str">
+        <v>2021-12-26 06:41:50 -0500</v>
+      </c>
+      <c r="M17" t="str">
+        <v>10</v>
+      </c>
+      <c r="N17" t="str">
+        <v>20</v>
+      </c>
+      <c r="O17" t="str">
+        <v>10</v>
+      </c>
+      <c r="P17" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q17" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="R17" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="S17" t="str">
+        <v/>
+      </c>
+      <c r="T17" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U17" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V17" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W17" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X17" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y17" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>José Ernesto ayala</v>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v>Carrera 6 N 12/85 sur torre 1 apto 1202 novaterra cipres</v>
+      </c>
+      <c r="D18" t="str">
+        <v xml:space="preserve">Mosquera </v>
+      </c>
+      <c r="E18" t="str">
+        <v>Cundinamarca</v>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H18" t="str">
+        <v>310 5527552</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J18" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K18" t="str">
+        <v>1</v>
+      </c>
+      <c r="L18" t="str">
+        <v>2021-12-26 07:34:02 -0500</v>
+      </c>
+      <c r="M18" t="str">
+        <v>10</v>
+      </c>
+      <c r="N18" t="str">
+        <v>20</v>
+      </c>
+      <c r="O18" t="str">
+        <v>10</v>
+      </c>
+      <c r="P18" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R18" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S18" t="str">
+        <v/>
+      </c>
+      <c r="T18" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U18" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V18" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W18" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X18" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y18" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Martha Cecilia  Rodríguez Bayona</v>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v>Cra 14 b # 161-89</v>
+      </c>
+      <c r="D19" t="str">
+        <v xml:space="preserve">Bogota </v>
+      </c>
+      <c r="E19" t="str">
+        <v>Bogotá</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Interior  3 apto 204</v>
+      </c>
+      <c r="G19" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H19" t="str">
+        <v>311 2921819</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J19" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K19" t="str">
+        <v>1</v>
+      </c>
+      <c r="L19" t="str">
+        <v>2021-12-26 10:02:48 -0500</v>
+      </c>
+      <c r="M19" t="str">
+        <v>10</v>
+      </c>
+      <c r="N19" t="str">
+        <v>20</v>
+      </c>
+      <c r="O19" t="str">
+        <v>10</v>
+      </c>
+      <c r="P19" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R19" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S19" t="str">
+        <v/>
+      </c>
+      <c r="T19" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U19" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V19" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W19" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X19" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y19" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Martha Lesmes</v>
+      </c>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v>Carrera7b#1-21 sur</v>
+      </c>
+      <c r="D20" t="str">
+        <v xml:space="preserve">Bogota </v>
+      </c>
+      <c r="E20" t="str">
+        <v>Cundinamarca</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="G20" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H20" t="str">
+        <v>3112045335</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J20" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K20" t="str">
+        <v>2</v>
+      </c>
+      <c r="L20" t="str">
+        <v>2021-12-26 12:51:08 -0500</v>
+      </c>
+      <c r="M20" t="str">
+        <v>10</v>
+      </c>
+      <c r="N20" t="str">
+        <v>20</v>
+      </c>
+      <c r="O20" t="str">
+        <v>10</v>
+      </c>
+      <c r="P20" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="R20" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="S20" t="str">
+        <v/>
+      </c>
+      <c r="T20" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U20" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V20" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W20" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X20" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y20" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Gustavo Granados</v>
+      </c>
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v>Carrera 90A # 8A - 10 torre 1 apto 102</v>
+      </c>
+      <c r="D21" t="str">
+        <v xml:space="preserve">BogotÁ </v>
+      </c>
+      <c r="E21" t="str">
+        <v>Bogotá</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Apartamento 102</v>
+      </c>
+      <c r="G21" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H21" t="str">
+        <v>300 5560061</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J21" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K21" t="str">
+        <v>1</v>
+      </c>
+      <c r="L21" t="str">
+        <v>2021-12-26 21:30:54 -0500</v>
+      </c>
+      <c r="M21" t="str">
+        <v>10</v>
+      </c>
+      <c r="N21" t="str">
+        <v>20</v>
+      </c>
+      <c r="O21" t="str">
+        <v>10</v>
+      </c>
+      <c r="P21" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R21" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S21" t="str">
+        <v/>
+      </c>
+      <c r="T21" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U21" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V21" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W21" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X21" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y21" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Rosa Alvarez</v>
+      </c>
+      <c r="B22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <v>Manzana 1 Casa 20 Urb Girasoles</v>
+      </c>
+      <c r="D22" t="str">
+        <v xml:space="preserve">Cucuta </v>
+      </c>
+      <c r="E22" t="str">
+        <v>Norte de Santander</v>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H22" t="str">
+        <v>312 4338419</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J22" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K22" t="str">
+        <v>1</v>
+      </c>
+      <c r="L22" t="str">
+        <v>2021-12-27 09:15:38 -0500</v>
+      </c>
+      <c r="M22" t="str">
+        <v>10</v>
+      </c>
+      <c r="N22" t="str">
+        <v>20</v>
+      </c>
+      <c r="O22" t="str">
+        <v>10</v>
+      </c>
+      <c r="P22" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R22" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S22" t="str">
+        <v/>
+      </c>
+      <c r="T22" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U22" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V22" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W22" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X22" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y22" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Alvarado sanchez Consuelo</v>
+      </c>
+      <c r="B23" t="str">
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <v>Transversal 75a#83b05</v>
+      </c>
+      <c r="D23" t="str">
+        <v xml:space="preserve">Bogota </v>
+      </c>
+      <c r="E23" t="str">
+        <v>Cundinamarca</v>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H23" t="str">
+        <v>'+57 310 5604028</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J23" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K23" t="str">
+        <v>2</v>
+      </c>
+      <c r="L23" t="str">
+        <v>2021-12-27 17:13:14 -0500</v>
+      </c>
+      <c r="M23" t="str">
+        <v>10</v>
+      </c>
+      <c r="N23" t="str">
+        <v>20</v>
+      </c>
+      <c r="O23" t="str">
+        <v>10</v>
+      </c>
+      <c r="P23" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="R23" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="S23" t="str">
+        <v/>
+      </c>
+      <c r="T23" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U23" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V23" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W23" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X23" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y23" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Román salazar María Azucena</v>
+      </c>
+      <c r="B24" t="str">
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <v>Carrera 13 # 14-42</v>
+      </c>
+      <c r="D24" t="str">
+        <v xml:space="preserve">Manizales </v>
+      </c>
+      <c r="E24" t="str">
+        <v>Caldas</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="G24" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H24" t="str">
+        <v>314 6854558</v>
+      </c>
+      <c r="I24" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J24" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K24" t="str">
+        <v>1</v>
+      </c>
+      <c r="L24" t="str">
+        <v>2021-12-27 17:23:37 -0500</v>
+      </c>
+      <c r="M24" t="str">
+        <v>10</v>
+      </c>
+      <c r="N24" t="str">
+        <v>20</v>
+      </c>
+      <c r="O24" t="str">
+        <v>10</v>
+      </c>
+      <c r="P24" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q24" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R24" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S24" t="str">
+        <v/>
+      </c>
+      <c r="T24" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U24" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V24" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W24" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X24" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y24" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>María Teresa Lobo Guardiola</v>
+      </c>
+      <c r="B25" t="str">
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <v>Calle 32 4 90</v>
+      </c>
+      <c r="D25" t="str">
+        <v xml:space="preserve">Santa Marta </v>
+      </c>
+      <c r="E25" t="str">
+        <v>Magdalena</v>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H25" t="str">
+        <v>301 4868000</v>
+      </c>
+      <c r="I25" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J25" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K25" t="str">
+        <v>2</v>
+      </c>
+      <c r="L25" t="str">
+        <v>2021-12-27 18:31:45 -0500</v>
+      </c>
+      <c r="M25" t="str">
+        <v>10</v>
+      </c>
+      <c r="N25" t="str">
+        <v>20</v>
+      </c>
+      <c r="O25" t="str">
+        <v>10</v>
+      </c>
+      <c r="P25" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="R25" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="S25" t="str">
+        <v/>
+      </c>
+      <c r="T25" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U25" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V25" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W25" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X25" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y25" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>María Teresa Lobo Guardiola</v>
+      </c>
+      <c r="B26" t="str">
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <v>Calle 32 4 90</v>
+      </c>
+      <c r="D26" t="str">
+        <v xml:space="preserve">Santa Marta </v>
+      </c>
+      <c r="E26" t="str">
+        <v>Magdalena</v>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H26" t="str">
+        <v>301 4868000</v>
+      </c>
+      <c r="I26" t="str">
+        <v>Cabezal ahorrador de agua</v>
+      </c>
+      <c r="J26" t="str">
+        <v>39900.00</v>
+      </c>
+      <c r="K26" t="str">
+        <v>2</v>
+      </c>
+      <c r="L26" t="str">
+        <v>2021-12-27 18:41:09 -0500</v>
+      </c>
+      <c r="M26" t="str">
+        <v>10</v>
+      </c>
+      <c r="N26" t="str">
+        <v>20</v>
+      </c>
+      <c r="O26" t="str">
+        <v>10</v>
+      </c>
+      <c r="P26" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>69900.00</v>
+      </c>
+      <c r="R26" t="str">
+        <v>69900.00</v>
+      </c>
+      <c r="S26" t="str">
+        <v/>
+      </c>
+      <c r="T26" t="str">
         <v>SI</v>
       </c>
-      <c r="U6" t="str">
-        <v>cra 26A#45-56</v>
-      </c>
-      <c r="V6" t="str">
-        <v>Sincelejo</v>
-      </c>
-      <c r="W6" t="str">
-        <v>Sucre</v>
-      </c>
-      <c r="X6" t="str">
-        <v>pioneros</v>
-      </c>
-      <c r="Y6" t="str">
+      <c r="U26" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V26" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W26" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X26" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y26" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Olga Romero</v>
+      </c>
+      <c r="B27" t="str">
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <v>Carrera 25A #41-34sur</v>
+      </c>
+      <c r="D27" t="str">
+        <v xml:space="preserve">Bogotá </v>
+      </c>
+      <c r="E27" t="str">
+        <v>Cundinamarca</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="G27" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H27" t="str">
+        <v>3142731434</v>
+      </c>
+      <c r="I27" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J27" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K27" t="str">
+        <v>1</v>
+      </c>
+      <c r="L27" t="str">
+        <v>2021-12-27 22:20:37 -0500</v>
+      </c>
+      <c r="M27" t="str">
+        <v>10</v>
+      </c>
+      <c r="N27" t="str">
+        <v>20</v>
+      </c>
+      <c r="O27" t="str">
+        <v>10</v>
+      </c>
+      <c r="P27" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q27" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R27" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S27" t="str">
+        <v/>
+      </c>
+      <c r="T27" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U27" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V27" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W27" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X27" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y27" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Lucero Medina</v>
+      </c>
+      <c r="B28" t="str">
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <v>Cra. 86#42c54 La america</v>
+      </c>
+      <c r="D28" t="str">
+        <v xml:space="preserve">Medellin </v>
+      </c>
+      <c r="E28" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Casa segundo piso</v>
+      </c>
+      <c r="G28" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H28" t="str">
+        <v>312 2172430</v>
+      </c>
+      <c r="I28" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J28" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K28" t="str">
+        <v>1</v>
+      </c>
+      <c r="L28" t="str">
+        <v>2021-12-28 00:29:59 -0500</v>
+      </c>
+      <c r="M28" t="str">
+        <v>10</v>
+      </c>
+      <c r="N28" t="str">
+        <v>20</v>
+      </c>
+      <c r="O28" t="str">
+        <v>10</v>
+      </c>
+      <c r="P28" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q28" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R28" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S28" t="str">
+        <v/>
+      </c>
+      <c r="T28" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U28" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V28" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W28" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X28" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y28" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Oscar Mauricio  Sánchez Vanegas</v>
+      </c>
+      <c r="B29" t="str">
+        <v/>
+      </c>
+      <c r="C29" t="str">
+        <v>Carrera 3 #5-77</v>
+      </c>
+      <c r="D29" t="str">
+        <v xml:space="preserve">Barichara </v>
+      </c>
+      <c r="E29" t="str">
+        <v>Santander</v>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H29" t="str">
+        <v>3156790672</v>
+      </c>
+      <c r="I29" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J29" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K29" t="str">
+        <v>1</v>
+      </c>
+      <c r="L29" t="str">
+        <v>2021-12-28 06:20:38 -0500</v>
+      </c>
+      <c r="M29" t="str">
+        <v>10</v>
+      </c>
+      <c r="N29" t="str">
+        <v>20</v>
+      </c>
+      <c r="O29" t="str">
+        <v>10</v>
+      </c>
+      <c r="P29" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R29" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S29" t="str">
+        <v/>
+      </c>
+      <c r="T29" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U29" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V29" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W29" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X29" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y29" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Dora luz Gonzalez</v>
+      </c>
+      <c r="B30" t="str">
+        <v/>
+      </c>
+      <c r="C30" t="str">
+        <v>Diagonal 25f 19-82</v>
+      </c>
+      <c r="D30" t="str">
+        <v xml:space="preserve">Dosquebradas </v>
+      </c>
+      <c r="E30" t="str">
+        <v>Risaralda</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Casa 73 conjunto reservas de milan</v>
+      </c>
+      <c r="G30" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H30" t="str">
+        <v>310 8314098</v>
+      </c>
+      <c r="I30" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J30" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K30" t="str">
+        <v>1</v>
+      </c>
+      <c r="L30" t="str">
+        <v>2021-12-28 07:50:06 -0500</v>
+      </c>
+      <c r="M30" t="str">
+        <v>10</v>
+      </c>
+      <c r="N30" t="str">
+        <v>20</v>
+      </c>
+      <c r="O30" t="str">
+        <v>10</v>
+      </c>
+      <c r="P30" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R30" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S30" t="str">
+        <v/>
+      </c>
+      <c r="T30" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U30" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V30" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W30" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X30" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y30" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Deiby añez</v>
+      </c>
+      <c r="B31" t="str">
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E31" t="str">
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H31" t="str">
+        <v>3012904420</v>
+      </c>
+      <c r="I31" t="str">
+        <v>Cabezal de Grifo 720°</v>
+      </c>
+      <c r="J31" t="str">
+        <v>59000.00</v>
+      </c>
+      <c r="K31" t="str">
+        <v>1</v>
+      </c>
+      <c r="L31" t="str">
+        <v>2021-12-28 08:34:30 -0500</v>
+      </c>
+      <c r="M31" t="str">
+        <v>10</v>
+      </c>
+      <c r="N31" t="str">
+        <v>20</v>
+      </c>
+      <c r="O31" t="str">
+        <v>10</v>
+      </c>
+      <c r="P31" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q31" t="str">
+        <v>59000.00</v>
+      </c>
+      <c r="R31" t="str">
+        <v>59000.00</v>
+      </c>
+      <c r="S31" t="str">
+        <v/>
+      </c>
+      <c r="T31" t="str">
+        <v>SI</v>
+      </c>
+      <c r="U31" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V31" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W31" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X31" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y31" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Carlos Castellanos</v>
+      </c>
+      <c r="B32" t="str">
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <v>Cra109 a#150-79</v>
+      </c>
+      <c r="D32" t="str">
+        <v xml:space="preserve">Bogotá </v>
+      </c>
+      <c r="E32" t="str">
+        <v>Bogotá</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Torre 3 apt 605</v>
+      </c>
+      <c r="G32" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H32" t="str">
+        <v>301 5743949</v>
+      </c>
+      <c r="I32" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J32" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K32" t="str">
+        <v>2</v>
+      </c>
+      <c r="L32" t="str">
+        <v>2021-12-28 09:06:26 -0500</v>
+      </c>
+      <c r="M32" t="str">
+        <v>10</v>
+      </c>
+      <c r="N32" t="str">
+        <v>20</v>
+      </c>
+      <c r="O32" t="str">
+        <v>10</v>
+      </c>
+      <c r="P32" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q32" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="R32" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="S32" t="str">
+        <v/>
+      </c>
+      <c r="T32" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U32" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V32" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W32" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X32" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y32" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Federico Echeverry</v>
+      </c>
+      <c r="B33" t="str">
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <v>Calle 144#22-15</v>
+      </c>
+      <c r="D33" t="str">
+        <v xml:space="preserve">Bogotá </v>
+      </c>
+      <c r="E33" t="str">
+        <v>Bogotá</v>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H33" t="str">
+        <v>322 9101431</v>
+      </c>
+      <c r="I33" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J33" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K33" t="str">
+        <v>1</v>
+      </c>
+      <c r="L33" t="str">
+        <v>2021-12-28 09:50:09 -0500</v>
+      </c>
+      <c r="M33" t="str">
+        <v>10</v>
+      </c>
+      <c r="N33" t="str">
+        <v>20</v>
+      </c>
+      <c r="O33" t="str">
+        <v>10</v>
+      </c>
+      <c r="P33" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q33" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R33" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S33" t="str">
+        <v/>
+      </c>
+      <c r="T33" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U33" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V33" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W33" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X33" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y33" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Deiby Añez</v>
+      </c>
+      <c r="B34" t="str">
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <v>Calle 29k 21c 21</v>
+      </c>
+      <c r="D34" t="str">
+        <v xml:space="preserve">Santa marta </v>
+      </c>
+      <c r="E34" t="str">
+        <v>Magdalena</v>
+      </c>
+      <c r="F34" t="str">
+        <v>-</v>
+      </c>
+      <c r="G34" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H34" t="str">
+        <v>+573205673412</v>
+      </c>
+      <c r="I34" t="str">
+        <v>Cabezal de Grifo 720°</v>
+      </c>
+      <c r="J34" t="str">
+        <v>59000.00</v>
+      </c>
+      <c r="K34" t="str">
+        <v>1</v>
+      </c>
+      <c r="L34" t="str">
+        <v>2021-12-28 10:39:47 -0500</v>
+      </c>
+      <c r="M34" t="str">
+        <v>10</v>
+      </c>
+      <c r="N34" t="str">
+        <v>20</v>
+      </c>
+      <c r="O34" t="str">
+        <v>10</v>
+      </c>
+      <c r="P34" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q34" t="str">
+        <v>59000.00</v>
+      </c>
+      <c r="R34" t="str">
+        <v>59000.00</v>
+      </c>
+      <c r="S34" t="str">
+        <v/>
+      </c>
+      <c r="T34" t="str">
+        <v>SI</v>
+      </c>
+      <c r="U34" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V34" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W34" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X34" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y34" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Bogus Gateway</v>
+      </c>
+      <c r="B35" t="str">
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <v>1234 South Road, 464w</v>
+      </c>
+      <c r="D35" t="str">
+        <v xml:space="preserve">Clovelly Park </v>
+      </c>
+      <c r="E35" t="str">
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <v>-</v>
+      </c>
+      <c r="G35" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H35" t="str">
+        <v>23247927</v>
+      </c>
+      <c r="I35" t="str">
+        <v>Cabezal de Grifo 720°</v>
+      </c>
+      <c r="J35" t="str">
+        <v>59900.00</v>
+      </c>
+      <c r="K35" t="str">
+        <v>1</v>
+      </c>
+      <c r="L35" t="str">
+        <v>2021-12-28 13:15:35 -0500</v>
+      </c>
+      <c r="M35" t="str">
+        <v>10</v>
+      </c>
+      <c r="N35" t="str">
+        <v>20</v>
+      </c>
+      <c r="O35" t="str">
+        <v>10</v>
+      </c>
+      <c r="P35" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q35" t="str">
+        <v>59900.00</v>
+      </c>
+      <c r="R35" t="str">
+        <v>59900.00</v>
+      </c>
+      <c r="S35" t="str">
+        <v/>
+      </c>
+      <c r="T35" t="str">
+        <v>SI</v>
+      </c>
+      <c r="U35" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V35" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W35" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X35" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y35" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Oscar Rico Ricardo</v>
+      </c>
+      <c r="B36" t="str">
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <v>Carrera 24 No. 35-47</v>
+      </c>
+      <c r="D36" t="str">
+        <v xml:space="preserve">Calarca </v>
+      </c>
+      <c r="E36" t="str">
+        <v>Quindío</v>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H36" t="str">
+        <v>310 4127397</v>
+      </c>
+      <c r="I36" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J36" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K36" t="str">
+        <v>1</v>
+      </c>
+      <c r="L36" t="str">
+        <v>2021-12-28 13:30:53 -0500</v>
+      </c>
+      <c r="M36" t="str">
+        <v>10</v>
+      </c>
+      <c r="N36" t="str">
+        <v>20</v>
+      </c>
+      <c r="O36" t="str">
+        <v>10</v>
+      </c>
+      <c r="P36" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q36" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R36" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S36" t="str">
+        <v/>
+      </c>
+      <c r="T36" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U36" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V36" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W36" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X36" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y36" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Katia  Gómez</v>
+      </c>
+      <c r="B37" t="str">
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <v>Urbanización Santa Ana</v>
+      </c>
+      <c r="D37" t="str">
+        <v xml:space="preserve">TURBACO </v>
+      </c>
+      <c r="E37" t="str">
+        <v>Bolívar</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Manzana 6 casa 3</v>
+      </c>
+      <c r="G37" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H37" t="str">
+        <v>311 3952255</v>
+      </c>
+      <c r="I37" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J37" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K37" t="str">
+        <v>1</v>
+      </c>
+      <c r="L37" t="str">
+        <v>2021-12-28 14:26:19 -0500</v>
+      </c>
+      <c r="M37" t="str">
+        <v>10</v>
+      </c>
+      <c r="N37" t="str">
+        <v>20</v>
+      </c>
+      <c r="O37" t="str">
+        <v>10</v>
+      </c>
+      <c r="P37" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q37" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R37" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S37" t="str">
+        <v/>
+      </c>
+      <c r="T37" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U37" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V37" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W37" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X37" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y37" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Monika Achury</v>
+      </c>
+      <c r="B38" t="str">
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <v>Vía restrepo entrada  el cairo km 2.5 reserva de la castellana Casa 39</v>
+      </c>
+      <c r="D38" t="str">
+        <v xml:space="preserve">Villavicencio </v>
+      </c>
+      <c r="E38" t="str">
+        <v>Meta</v>
+      </c>
+      <c r="F38" t="str">
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H38" t="str">
+        <v>3153491650</v>
+      </c>
+      <c r="I38" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J38" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K38" t="str">
+        <v>3</v>
+      </c>
+      <c r="L38" t="str">
+        <v>2021-12-28 14:47:44 -0500</v>
+      </c>
+      <c r="M38" t="str">
+        <v>10</v>
+      </c>
+      <c r="N38" t="str">
+        <v>20</v>
+      </c>
+      <c r="O38" t="str">
+        <v>10</v>
+      </c>
+      <c r="P38" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q38" t="str">
+        <v>89700.00</v>
+      </c>
+      <c r="R38" t="str">
+        <v>89700.00</v>
+      </c>
+      <c r="S38" t="str">
+        <v/>
+      </c>
+      <c r="T38" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U38" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V38" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W38" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X38" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y38" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Deiby Añez</v>
+      </c>
+      <c r="B39" t="str">
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <v>Calle 29k 21c 21</v>
+      </c>
+      <c r="D39" t="str">
+        <v xml:space="preserve">Santa marta </v>
+      </c>
+      <c r="E39" t="str">
+        <v>Magdalena</v>
+      </c>
+      <c r="F39" t="str">
+        <v>-</v>
+      </c>
+      <c r="G39" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H39" t="str">
+        <v>+573205673412</v>
+      </c>
+      <c r="I39" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J39" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K39" t="str">
+        <v>1</v>
+      </c>
+      <c r="L39" t="str">
+        <v>2021-12-28 17:09:18 -0500</v>
+      </c>
+      <c r="M39" t="str">
+        <v>10</v>
+      </c>
+      <c r="N39" t="str">
+        <v>20</v>
+      </c>
+      <c r="O39" t="str">
+        <v>10</v>
+      </c>
+      <c r="P39" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q39" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R39" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S39" t="str">
+        <v/>
+      </c>
+      <c r="T39" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U39" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V39" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W39" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X39" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y39" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Deiby Añez</v>
+      </c>
+      <c r="B40" t="str">
+        <v/>
+      </c>
+      <c r="C40" t="str">
+        <v>Calle 29k 21c 21</v>
+      </c>
+      <c r="D40" t="str">
+        <v xml:space="preserve">Santa marta </v>
+      </c>
+      <c r="E40" t="str">
+        <v>Magdalena</v>
+      </c>
+      <c r="F40" t="str">
+        <v>-</v>
+      </c>
+      <c r="G40" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H40" t="str">
+        <v>+573205673412</v>
+      </c>
+      <c r="I40" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J40" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K40" t="str">
+        <v>1</v>
+      </c>
+      <c r="L40" t="str">
+        <v>2021-12-28 17:14:02 -0500</v>
+      </c>
+      <c r="M40" t="str">
+        <v>10</v>
+      </c>
+      <c r="N40" t="str">
+        <v>20</v>
+      </c>
+      <c r="O40" t="str">
+        <v>10</v>
+      </c>
+      <c r="P40" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q40" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R40" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S40" t="str">
+        <v/>
+      </c>
+      <c r="T40" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U40" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V40" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W40" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X40" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y40" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Deiby Añez</v>
+      </c>
+      <c r="B41" t="str">
+        <v/>
+      </c>
+      <c r="C41" t="str">
+        <v>Calle 29k 21c 21</v>
+      </c>
+      <c r="D41" t="str">
+        <v xml:space="preserve">Santa marta </v>
+      </c>
+      <c r="E41" t="str">
+        <v>Magdalena</v>
+      </c>
+      <c r="F41" t="str">
+        <v>-</v>
+      </c>
+      <c r="G41" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H41" t="str">
+        <v>+573205673412</v>
+      </c>
+      <c r="I41" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J41" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K41" t="str">
+        <v>1</v>
+      </c>
+      <c r="L41" t="str">
+        <v>2021-12-28 17:25:11 -0500</v>
+      </c>
+      <c r="M41" t="str">
+        <v>10</v>
+      </c>
+      <c r="N41" t="str">
+        <v>20</v>
+      </c>
+      <c r="O41" t="str">
+        <v>10</v>
+      </c>
+      <c r="P41" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q41" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R41" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S41" t="str">
+        <v/>
+      </c>
+      <c r="T41" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U41" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V41" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W41" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X41" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y41" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Ivan Corzo</v>
+      </c>
+      <c r="B42" t="str">
+        <v/>
+      </c>
+      <c r="C42" t="str">
+        <v>Carrera 35# 50-48</v>
+      </c>
+      <c r="D42" t="str">
+        <v xml:space="preserve">Barranquilla </v>
+      </c>
+      <c r="E42" t="str">
+        <v>Atlántico</v>
+      </c>
+      <c r="F42" t="str">
+        <v>-</v>
+      </c>
+      <c r="G42" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H42" t="str">
+        <v>+573014118327</v>
+      </c>
+      <c r="I42" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J42" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K42" t="str">
+        <v>1</v>
+      </c>
+      <c r="L42" t="str">
+        <v>2021-12-28 19:53:08 -0500</v>
+      </c>
+      <c r="M42" t="str">
+        <v>10</v>
+      </c>
+      <c r="N42" t="str">
+        <v>20</v>
+      </c>
+      <c r="O42" t="str">
+        <v>10</v>
+      </c>
+      <c r="P42" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q42" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R42" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S42" t="str">
+        <v/>
+      </c>
+      <c r="T42" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U42" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V42" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W42" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X42" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y42" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Jackeline Pulido</v>
+      </c>
+      <c r="B43" t="str">
+        <v/>
+      </c>
+      <c r="C43" t="str">
+        <v>Calle 1 No 10 - 107</v>
+      </c>
+      <c r="D43" t="str">
+        <v xml:space="preserve">Sogamoso </v>
+      </c>
+      <c r="E43" t="str">
+        <v>Boyacá</v>
+      </c>
+      <c r="F43" t="str">
+        <v>-</v>
+      </c>
+      <c r="G43" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H43" t="str">
+        <v>+573115463711</v>
+      </c>
+      <c r="I43" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J43" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K43" t="str">
+        <v>1</v>
+      </c>
+      <c r="L43" t="str">
+        <v>2021-12-28 20:49:16 -0500</v>
+      </c>
+      <c r="M43" t="str">
+        <v>10</v>
+      </c>
+      <c r="N43" t="str">
+        <v>20</v>
+      </c>
+      <c r="O43" t="str">
+        <v>10</v>
+      </c>
+      <c r="P43" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q43" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R43" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S43" t="str">
+        <v/>
+      </c>
+      <c r="T43" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U43" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V43" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W43" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X43" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y43" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Jorge Eliecer Diaz Leyton</v>
+      </c>
+      <c r="B44" t="str">
+        <v/>
+      </c>
+      <c r="C44" t="str">
+        <v>Calle 62N #3B Bis-43, Apartamento 201</v>
+      </c>
+      <c r="D44" t="str">
+        <v xml:space="preserve">Cali </v>
+      </c>
+      <c r="E44" t="str">
+        <v>Valle del Cauca</v>
+      </c>
+      <c r="F44" t="str">
+        <v>-</v>
+      </c>
+      <c r="G44" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H44" t="str">
+        <v>+573137524924</v>
+      </c>
+      <c r="I44" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J44" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K44" t="str">
+        <v>1</v>
+      </c>
+      <c r="L44" t="str">
+        <v>2021-12-28 23:51:28 -0500</v>
+      </c>
+      <c r="M44" t="str">
+        <v>10</v>
+      </c>
+      <c r="N44" t="str">
+        <v>20</v>
+      </c>
+      <c r="O44" t="str">
+        <v>10</v>
+      </c>
+      <c r="P44" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q44" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R44" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S44" t="str">
+        <v/>
+      </c>
+      <c r="T44" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U44" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V44" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W44" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X44" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y44" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Alejandro Gonzalez</v>
+      </c>
+      <c r="B45" t="str">
+        <v/>
+      </c>
+      <c r="C45" t="str">
+        <v>Cra. 17 # 71- 49 local 1</v>
+      </c>
+      <c r="D45" t="str">
+        <v xml:space="preserve">Bogota </v>
+      </c>
+      <c r="E45" t="str">
+        <v>Cundinamarca</v>
+      </c>
+      <c r="F45" t="str">
+        <v>-</v>
+      </c>
+      <c r="G45" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H45" t="str">
+        <v>+573173182696</v>
+      </c>
+      <c r="I45" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J45" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K45" t="str">
+        <v>2</v>
+      </c>
+      <c r="L45" t="str">
+        <v>2021-12-29 05:53:56 -0500</v>
+      </c>
+      <c r="M45" t="str">
+        <v>10</v>
+      </c>
+      <c r="N45" t="str">
+        <v>20</v>
+      </c>
+      <c r="O45" t="str">
+        <v>10</v>
+      </c>
+      <c r="P45" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q45" t="str">
+        <v>59800.00</v>
+      </c>
+      <c r="R45" t="str">
+        <v>59800.00</v>
+      </c>
+      <c r="S45" t="str">
+        <v/>
+      </c>
+      <c r="T45" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U45" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V45" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W45" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X45" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y45" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Alejandro  Gonzalez Mojica</v>
+      </c>
+      <c r="B46" t="str">
+        <v/>
+      </c>
+      <c r="C46" t="str">
+        <v>Cra 17 #71- 49</v>
+      </c>
+      <c r="D46" t="str">
+        <v xml:space="preserve">Bogotá </v>
+      </c>
+      <c r="E46" t="str">
+        <v>Bogotá</v>
+      </c>
+      <c r="F46" t="str">
+        <v>Local 1</v>
+      </c>
+      <c r="G46" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H46" t="str">
+        <v>317 3182696</v>
+      </c>
+      <c r="I46" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J46" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K46" t="str">
+        <v>2</v>
+      </c>
+      <c r="L46" t="str">
+        <v>2021-12-29 05:57:02 -0500</v>
+      </c>
+      <c r="M46" t="str">
+        <v>10</v>
+      </c>
+      <c r="N46" t="str">
+        <v>20</v>
+      </c>
+      <c r="O46" t="str">
+        <v>10</v>
+      </c>
+      <c r="P46" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q46" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="R46" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="S46" t="str">
+        <v/>
+      </c>
+      <c r="T46" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U46" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V46" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W46" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X46" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y46" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Adriana  Cuartas</v>
+      </c>
+      <c r="B47" t="str">
+        <v/>
+      </c>
+      <c r="C47" t="str">
+        <v>Calle 12  su # 25 12</v>
+      </c>
+      <c r="D47" t="str">
+        <v xml:space="preserve">Medellin </v>
+      </c>
+      <c r="E47" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="F47" t="str">
+        <v>304</v>
+      </c>
+      <c r="G47" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H47" t="str">
+        <v>315 4529295</v>
+      </c>
+      <c r="I47" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J47" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K47" t="str">
+        <v>3</v>
+      </c>
+      <c r="L47" t="str">
+        <v>2021-12-29 06:02:17 -0500</v>
+      </c>
+      <c r="M47" t="str">
+        <v>10</v>
+      </c>
+      <c r="N47" t="str">
+        <v>20</v>
+      </c>
+      <c r="O47" t="str">
+        <v>10</v>
+      </c>
+      <c r="P47" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q47" t="str">
+        <v>64900.00</v>
+      </c>
+      <c r="R47" t="str">
+        <v>64900.00</v>
+      </c>
+      <c r="S47" t="str">
+        <v/>
+      </c>
+      <c r="T47" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U47" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V47" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W47" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X47" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y47" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Jenny Bohórquez</v>
+      </c>
+      <c r="B48" t="str">
+        <v/>
+      </c>
+      <c r="C48" t="str">
+        <v>Vda Bojaca sector la estrella alcázares 1 casa 21</v>
+      </c>
+      <c r="D48" t="str">
+        <v xml:space="preserve">Chía </v>
+      </c>
+      <c r="E48" t="str">
+        <v>Cundinamarca</v>
+      </c>
+      <c r="F48" t="str">
+        <v>-</v>
+      </c>
+      <c r="G48" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H48" t="str">
+        <v>+573118597158</v>
+      </c>
+      <c r="I48" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J48" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K48" t="str">
+        <v>1</v>
+      </c>
+      <c r="L48" t="str">
+        <v>2021-12-29 06:59:41 -0500</v>
+      </c>
+      <c r="M48" t="str">
+        <v>10</v>
+      </c>
+      <c r="N48" t="str">
+        <v>20</v>
+      </c>
+      <c r="O48" t="str">
+        <v>10</v>
+      </c>
+      <c r="P48" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q48" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R48" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S48" t="str">
+        <v/>
+      </c>
+      <c r="T48" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U48" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V48" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W48" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X48" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y48" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Liliana Urueta velez</v>
+      </c>
+      <c r="B49" t="str">
+        <v/>
+      </c>
+      <c r="C49" t="str">
+        <v>Calle 12 # 7-28 casa 4 esquina</v>
+      </c>
+      <c r="D49" t="str">
+        <v xml:space="preserve">Ciénaga </v>
+      </c>
+      <c r="E49" t="str">
+        <v>Magdalena</v>
+      </c>
+      <c r="F49" t="str">
+        <v>-</v>
+      </c>
+      <c r="G49" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H49" t="str">
+        <v>+573017089161</v>
+      </c>
+      <c r="I49" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J49" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K49" t="str">
+        <v>1</v>
+      </c>
+      <c r="L49" t="str">
+        <v>2021-12-29 07:04:22 -0500</v>
+      </c>
+      <c r="M49" t="str">
+        <v>10</v>
+      </c>
+      <c r="N49" t="str">
+        <v>20</v>
+      </c>
+      <c r="O49" t="str">
+        <v>10</v>
+      </c>
+      <c r="P49" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q49" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R49" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S49" t="str">
+        <v/>
+      </c>
+      <c r="T49" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U49" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V49" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W49" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X49" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y49" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Jorge Jaime</v>
+      </c>
+      <c r="B50" t="str">
+        <v/>
+      </c>
+      <c r="C50" t="str">
+        <v>Carrera 38C # 74B-125</v>
+      </c>
+      <c r="D50" t="str">
+        <v xml:space="preserve">Barranquilla </v>
+      </c>
+      <c r="E50" t="str">
+        <v>Atlántico</v>
+      </c>
+      <c r="F50" t="str">
+        <v>-</v>
+      </c>
+      <c r="G50" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H50" t="str">
+        <v>+573003242136</v>
+      </c>
+      <c r="I50" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J50" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K50" t="str">
+        <v>1</v>
+      </c>
+      <c r="L50" t="str">
+        <v>2021-12-29 07:37:11 -0500</v>
+      </c>
+      <c r="M50" t="str">
+        <v>10</v>
+      </c>
+      <c r="N50" t="str">
+        <v>20</v>
+      </c>
+      <c r="O50" t="str">
+        <v>10</v>
+      </c>
+      <c r="P50" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q50" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R50" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S50" t="str">
+        <v/>
+      </c>
+      <c r="T50" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U50" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V50" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W50" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X50" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y50" t="str">
+        <v>30024588541</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Fuentes Nancy</v>
+      </c>
+      <c r="B51" t="str">
+        <v/>
+      </c>
+      <c r="C51" t="str">
+        <v>Calle 26b 4 29 apto.503</v>
+      </c>
+      <c r="D51" t="str">
+        <v xml:space="preserve">Bogota </v>
+      </c>
+      <c r="E51" t="str">
+        <v>Bogotá</v>
+      </c>
+      <c r="F51" t="str">
+        <v>-</v>
+      </c>
+      <c r="G51" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H51" t="str">
+        <v>+573125228485</v>
+      </c>
+      <c r="I51" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J51" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K51" t="str">
+        <v>1</v>
+      </c>
+      <c r="L51" t="str">
+        <v>2021-12-29 08:09:11 -0500</v>
+      </c>
+      <c r="M51" t="str">
+        <v>10</v>
+      </c>
+      <c r="N51" t="str">
+        <v>20</v>
+      </c>
+      <c r="O51" t="str">
+        <v>10</v>
+      </c>
+      <c r="P51" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q51" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R51" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S51" t="str">
+        <v/>
+      </c>
+      <c r="T51" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U51" t="str">
+        <v>cra 26A#45-56</v>
+      </c>
+      <c r="V51" t="str">
+        <v>Sincelejo</v>
+      </c>
+      <c r="W51" t="str">
+        <v>Sucre</v>
+      </c>
+      <c r="X51" t="str">
+        <v>pioneros</v>
+      </c>
+      <c r="Y51" t="str">
         <v>30024588541</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Y6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Y51"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Y49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -459,19 +459,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Maria ines</v>
+        <v>Restrepo Coronado Yiseth Margarita</v>
       </c>
       <c r="B2" t="str">
-        <v>Rodriguez capera</v>
+        <v/>
       </c>
       <c r="C2" t="str">
-        <v>Manzana g casa No. 3 Los cambulos</v>
+        <v>Urbanización Terranova Mz A cs 9</v>
       </c>
       <c r="D2" t="str">
-        <v>Girardot</v>
+        <v xml:space="preserve">Santa Marta </v>
       </c>
       <c r="E2" t="str">
-        <v>Cundunamarca</v>
+        <v>Magdalena</v>
       </c>
       <c r="F2" t="str">
         <v/>
@@ -480,19 +480,19 @@
         <v>servientrega</v>
       </c>
       <c r="H2" t="str">
-        <v>3202252244</v>
+        <v>318 8778852</v>
       </c>
       <c r="I2" t="str">
-        <v>CARGO SHORT - Grey, M</v>
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
       </c>
       <c r="J2" t="str">
-        <v>87500</v>
+        <v>29900.00</v>
       </c>
       <c r="K2" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" t="str">
-        <v>2021-12-16T20:02:13</v>
+        <v>2021-12-23 10:43:32 -0500</v>
       </c>
       <c r="M2" t="str">
         <v>20</v>
@@ -501,75 +501,75 @@
         <v>20</v>
       </c>
       <c r="O2" t="str">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P2" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="str">
-        <v>87500</v>
+        <v>49900.00</v>
       </c>
       <c r="R2" t="str">
-        <v>87500</v>
+        <v>49900.00</v>
       </c>
       <c r="S2" t="str">
         <v/>
       </c>
       <c r="T2" t="str">
-        <v>SI</v>
+        <v>NO</v>
       </c>
       <c r="U2" t="str">
-        <v>cra25A#35-56</v>
+        <v>cra26A#35-56</v>
       </c>
       <c r="V2" t="str">
-        <v>itagui</v>
+        <v>Medellin</v>
       </c>
       <c r="W2" t="str">
         <v>Antioquia</v>
       </c>
       <c r="X2" t="str">
-        <v>Cra. 52c ## 77-61 Piso 2, Itagüi, Antioquia</v>
+        <v>El poblado</v>
       </c>
       <c r="Y2" t="str">
-        <v>3012564450</v>
+        <v>3012658852</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Maria ines</v>
+        <v>Paula Andrea  Bastidas Coral</v>
       </c>
       <c r="B3" t="str">
-        <v>Rodriguez capera</v>
+        <v/>
       </c>
       <c r="C3" t="str">
-        <v>Manzana g casa No. 3 Los cambulos</v>
+        <v>Av. Panamericana#7-62</v>
       </c>
       <c r="D3" t="str">
-        <v>Girardot</v>
+        <v xml:space="preserve">Ipiales </v>
       </c>
       <c r="E3" t="str">
-        <v>Cundunamarca</v>
+        <v>Nariño</v>
       </c>
       <c r="F3" t="str">
-        <v/>
+        <v>Repuestos Los Trailers</v>
       </c>
       <c r="G3" t="str">
         <v>servientrega</v>
       </c>
       <c r="H3" t="str">
-        <v>3202252244</v>
+        <v>311 7789609</v>
       </c>
       <c r="I3" t="str">
-        <v>CARGO SHORT - Grey, M</v>
+        <v>GRIFO TELEDUCHA</v>
       </c>
       <c r="J3" t="str">
-        <v>87500</v>
+        <v>74900.00</v>
       </c>
       <c r="K3" t="str">
         <v>1</v>
       </c>
       <c r="L3" t="str">
-        <v>2021-12-16T19:25:47</v>
+        <v>2021-12-23 14:37:46 -0500</v>
       </c>
       <c r="M3" t="str">
         <v>20</v>
@@ -578,16 +578,16 @@
         <v>20</v>
       </c>
       <c r="O3" t="str">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P3" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="str">
-        <v>87500</v>
+        <v>74900.00</v>
       </c>
       <c r="R3" t="str">
-        <v>87500</v>
+        <v>74900.00</v>
       </c>
       <c r="S3" t="str">
         <v/>
@@ -596,57 +596,57 @@
         <v>SI</v>
       </c>
       <c r="U3" t="str">
-        <v>cra25A#35-56</v>
+        <v>cra26A#35-56</v>
       </c>
       <c r="V3" t="str">
-        <v>itagui</v>
+        <v>Medellin</v>
       </c>
       <c r="W3" t="str">
         <v>Antioquia</v>
       </c>
       <c r="X3" t="str">
-        <v>Cra. 52c ## 77-61 Piso 2, Itagüi, Antioquia</v>
+        <v>El poblado</v>
       </c>
       <c r="Y3" t="str">
-        <v>3012564450</v>
+        <v>3012658852</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Laura</v>
+        <v>Karina yelena Toro brito</v>
       </c>
       <c r="B4" t="str">
-        <v>Ballesteros</v>
+        <v/>
       </c>
       <c r="C4" t="str">
-        <v>Cra 50 no 96a-16</v>
+        <v>José Antonio Galán</v>
       </c>
       <c r="D4" t="str">
-        <v>Barranquilla</v>
+        <v xml:space="preserve">Riohacha </v>
       </c>
       <c r="E4" t="str">
-        <v>Atlantico</v>
+        <v>La Guajira</v>
       </c>
       <c r="F4" t="str">
-        <v>Casa 1 conjunto blanco</v>
+        <v>Calle 11B 18 42 Casa 10</v>
       </c>
       <c r="G4" t="str">
         <v>servientrega</v>
       </c>
       <c r="H4" t="str">
-        <v>304 3898375</v>
+        <v>300 6352612</v>
       </c>
       <c r="I4" t="str">
-        <v>SWEAT SHORT - Dark Grey, M</v>
+        <v>GRIFO TELEDUCHA</v>
       </c>
       <c r="J4" t="str">
-        <v>77000</v>
+        <v>74900.00</v>
       </c>
       <c r="K4" t="str">
         <v>1</v>
       </c>
       <c r="L4" t="str">
-        <v>2021-12-16T02:22:15</v>
+        <v>2021-12-23 16:39:55 -0500</v>
       </c>
       <c r="M4" t="str">
         <v>20</v>
@@ -655,16 +655,16 @@
         <v>20</v>
       </c>
       <c r="O4" t="str">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P4" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="str">
-        <v>77000</v>
+        <v>74900.00</v>
       </c>
       <c r="R4" t="str">
-        <v>77000</v>
+        <v>74900.00</v>
       </c>
       <c r="S4" t="str">
         <v/>
@@ -673,57 +673,57 @@
         <v>SI</v>
       </c>
       <c r="U4" t="str">
-        <v>cra25A#35-56</v>
+        <v>cra26A#35-56</v>
       </c>
       <c r="V4" t="str">
-        <v>itagui</v>
+        <v>Medellin</v>
       </c>
       <c r="W4" t="str">
         <v>Antioquia</v>
       </c>
       <c r="X4" t="str">
-        <v>Cra. 52c ## 77-61 Piso 2, Itagüi, Antioquia</v>
+        <v>El poblado</v>
       </c>
       <c r="Y4" t="str">
-        <v>3012564450</v>
+        <v>3012658852</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>juan manuel</v>
+        <v>Luz Amanda Maldonado</v>
       </c>
       <c r="B5" t="str">
-        <v>gutierrez mercado</v>
+        <v/>
       </c>
       <c r="C5" t="str">
-        <v>cra 52·80-96</v>
+        <v>Calle 35 A No .17-10 este</v>
       </c>
       <c r="D5" t="str">
-        <v>barranquilla</v>
+        <v xml:space="preserve">Villavicencio </v>
       </c>
       <c r="E5" t="str">
-        <v>atlantico</v>
+        <v>Meta</v>
       </c>
       <c r="F5" t="str">
-        <v>Apto 5b edificio vivien</v>
+        <v>Mz B cs 2 Antonio villavicencio</v>
       </c>
       <c r="G5" t="str">
         <v>servientrega</v>
       </c>
       <c r="H5" t="str">
-        <v>3133153860</v>
+        <v>'+57 311 4802287</v>
       </c>
       <c r="I5" t="str">
-        <v>RACING TEAM T-SHIRT - White, S</v>
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
       </c>
       <c r="J5" t="str">
-        <v>90000</v>
+        <v>29900.00</v>
       </c>
       <c r="K5" t="str">
         <v>1</v>
       </c>
       <c r="L5" t="str">
-        <v>2021-12-10T01:10:23</v>
+        <v>2021-12-25 02:51:06 -0500</v>
       </c>
       <c r="M5" t="str">
         <v>20</v>
@@ -732,75 +732,75 @@
         <v>20</v>
       </c>
       <c r="O5" t="str">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P5" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="str">
-        <v>90000</v>
+        <v>29900.00</v>
       </c>
       <c r="R5" t="str">
-        <v>90000</v>
+        <v>29900.00</v>
       </c>
       <c r="S5" t="str">
         <v/>
       </c>
       <c r="T5" t="str">
-        <v>SI</v>
+        <v>NO</v>
       </c>
       <c r="U5" t="str">
-        <v>cra25A#35-56</v>
+        <v>cra26A#35-56</v>
       </c>
       <c r="V5" t="str">
-        <v>itagui</v>
+        <v>Medellin</v>
       </c>
       <c r="W5" t="str">
         <v>Antioquia</v>
       </c>
       <c r="X5" t="str">
-        <v>Cra. 52c ## 77-61 Piso 2, Itagüi, Antioquia</v>
+        <v>El poblado</v>
       </c>
       <c r="Y5" t="str">
-        <v>3012564450</v>
+        <v>3012658852</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Juan</v>
+        <v>Mónica Posada Alcalá</v>
       </c>
       <c r="B6" t="str">
-        <v>Villa</v>
+        <v/>
       </c>
       <c r="C6" t="str">
-        <v>Diagonal4#3-E-35 casas nogales de cajica</v>
+        <v>Cra 15D No. 39A-27</v>
       </c>
       <c r="D6" t="str">
-        <v>Cajica</v>
+        <v xml:space="preserve">Monteria </v>
       </c>
       <c r="E6" t="str">
-        <v>Cajica</v>
+        <v>Córdoba</v>
       </c>
       <c r="F6" t="str">
-        <v>Casa 33</v>
+        <v/>
       </c>
       <c r="G6" t="str">
         <v>servientrega</v>
       </c>
       <c r="H6" t="str">
-        <v>3002416676</v>
+        <v>316 3185303</v>
       </c>
       <c r="I6" t="str">
-        <v>CARGO PANT - Grey, M</v>
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
       </c>
       <c r="J6" t="str">
-        <v>150000</v>
+        <v>29900.00</v>
       </c>
       <c r="K6" t="str">
         <v>1</v>
       </c>
       <c r="L6" t="str">
-        <v>2021-12-01T16:48:07</v>
+        <v>2021-12-25 06:20:24 -0500</v>
       </c>
       <c r="M6" t="str">
         <v>20</v>
@@ -809,75 +809,75 @@
         <v>20</v>
       </c>
       <c r="O6" t="str">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P6" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="str">
-        <v>150000</v>
+        <v>29900.00</v>
       </c>
       <c r="R6" t="str">
-        <v>150000</v>
+        <v>29900.00</v>
       </c>
       <c r="S6" t="str">
         <v/>
       </c>
       <c r="T6" t="str">
-        <v>SI</v>
+        <v>NO</v>
       </c>
       <c r="U6" t="str">
-        <v>cra25A#35-56</v>
+        <v>cra26A#35-56</v>
       </c>
       <c r="V6" t="str">
-        <v>itagui</v>
+        <v>Medellin</v>
       </c>
       <c r="W6" t="str">
         <v>Antioquia</v>
       </c>
       <c r="X6" t="str">
-        <v>Cra. 52c ## 77-61 Piso 2, Itagüi, Antioquia</v>
+        <v>El poblado</v>
       </c>
       <c r="Y6" t="str">
-        <v>3012564450</v>
+        <v>3012658852</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Juan</v>
+        <v>Rubiela Rojas</v>
       </c>
       <c r="B7" t="str">
-        <v>Villa</v>
+        <v/>
       </c>
       <c r="C7" t="str">
-        <v>Diagonal4#3-E-35 casas nogales de cajica</v>
+        <v>Kra 4a# 8 -38</v>
       </c>
       <c r="D7" t="str">
-        <v>Cajica</v>
+        <v xml:space="preserve">Santa rosa de cabal </v>
       </c>
       <c r="E7" t="str">
-        <v>Cajica</v>
+        <v>Risaralda</v>
       </c>
       <c r="F7" t="str">
-        <v>Casa 33</v>
+        <v>Cerros de la  traviata   santa rosa de cabal</v>
       </c>
       <c r="G7" t="str">
         <v>servientrega</v>
       </c>
       <c r="H7" t="str">
-        <v>3002416676</v>
+        <v>312 8870268</v>
       </c>
       <c r="I7" t="str">
-        <v>CARGO PANT - Grey, M</v>
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
       </c>
       <c r="J7" t="str">
-        <v>150000</v>
+        <v>29900.00</v>
       </c>
       <c r="K7" t="str">
         <v>1</v>
       </c>
       <c r="L7" t="str">
-        <v>2021-12-01T04:14:53</v>
+        <v>2021-12-25 07:47:59 -0500</v>
       </c>
       <c r="M7" t="str">
         <v>20</v>
@@ -886,42 +886,3276 @@
         <v>20</v>
       </c>
       <c r="O7" t="str">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P7" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R7" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S7" t="str">
+        <v/>
+      </c>
+      <c r="T7" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U7" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V7" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W7" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X7" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y7" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Nora Beatriz Urdinola Calderón</v>
+      </c>
+      <c r="B8" t="str">
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <v>Calle 49# T 39-38 juan Pablo ll</v>
+      </c>
+      <c r="D8" t="str">
+        <v xml:space="preserve">Palmira </v>
+      </c>
+      <c r="E8" t="str">
+        <v>Valle del Cauca</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="G8" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H8" t="str">
+        <v>'+57 315 5204389</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J8" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K8" t="str">
         <v>1</v>
       </c>
-      <c r="Q7" t="str">
-        <v>150000</v>
-      </c>
-      <c r="R7" t="str">
-        <v>150000</v>
-      </c>
-      <c r="S7" t="str">
-        <v/>
-      </c>
-      <c r="T7" t="str">
+      <c r="L8" t="str">
+        <v>2021-12-25 07:48:08 -0500</v>
+      </c>
+      <c r="M8" t="str">
+        <v>20</v>
+      </c>
+      <c r="N8" t="str">
+        <v>20</v>
+      </c>
+      <c r="O8" t="str">
+        <v>30</v>
+      </c>
+      <c r="P8" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R8" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S8" t="str">
+        <v/>
+      </c>
+      <c r="T8" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U8" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V8" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W8" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X8" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y8" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Andres Felipe Osorio blanco</v>
+      </c>
+      <c r="B9" t="str">
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <v>Cra 19 a calle 19b -48</v>
+      </c>
+      <c r="D9" t="str">
+        <v xml:space="preserve">Barbosa </v>
+      </c>
+      <c r="E9" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Interior 301</v>
+      </c>
+      <c r="G9" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H9" t="str">
+        <v>3105109643</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J9" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K9" t="str">
+        <v>1</v>
+      </c>
+      <c r="L9" t="str">
+        <v>2021-12-25 13:17:24 -0500</v>
+      </c>
+      <c r="M9" t="str">
+        <v>20</v>
+      </c>
+      <c r="N9" t="str">
+        <v>20</v>
+      </c>
+      <c r="O9" t="str">
+        <v>30</v>
+      </c>
+      <c r="P9" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R9" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S9" t="str">
+        <v/>
+      </c>
+      <c r="T9" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U9" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V9" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W9" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X9" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y9" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Hilda Novoa de Rodriguez</v>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <v>Edifício Dimell</v>
+      </c>
+      <c r="D10" t="str">
+        <v xml:space="preserve">Villavicencio </v>
+      </c>
+      <c r="E10" t="str">
+        <v>Meta</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Calle 33B # 36-37</v>
+      </c>
+      <c r="G10" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H10" t="str">
+        <v>310 5678092</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J10" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K10" t="str">
+        <v>2</v>
+      </c>
+      <c r="L10" t="str">
+        <v>2021-12-25 16:49:25 -0500</v>
+      </c>
+      <c r="M10" t="str">
+        <v>20</v>
+      </c>
+      <c r="N10" t="str">
+        <v>20</v>
+      </c>
+      <c r="O10" t="str">
+        <v>30</v>
+      </c>
+      <c r="P10" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="R10" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="S10" t="str">
+        <v/>
+      </c>
+      <c r="T10" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U10" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V10" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W10" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X10" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y10" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Claudia Gonzalez</v>
+      </c>
+      <c r="B11" t="str">
+        <v/>
+      </c>
+      <c r="C11" t="str">
+        <v>Calle 20sur numero 39a 72</v>
+      </c>
+      <c r="D11" t="str">
+        <v xml:space="preserve">Medellin </v>
+      </c>
+      <c r="E11" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="F11" t="str">
+        <v>607</v>
+      </c>
+      <c r="G11" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H11" t="str">
+        <v>304 5370870</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J11" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K11" t="str">
+        <v>1</v>
+      </c>
+      <c r="L11" t="str">
+        <v>2021-12-25 17:58:45 -0500</v>
+      </c>
+      <c r="M11" t="str">
+        <v>20</v>
+      </c>
+      <c r="N11" t="str">
+        <v>20</v>
+      </c>
+      <c r="O11" t="str">
+        <v>30</v>
+      </c>
+      <c r="P11" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R11" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S11" t="str">
+        <v/>
+      </c>
+      <c r="T11" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U11" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V11" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W11" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X11" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y11" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Isabel Vélez</v>
+      </c>
+      <c r="B12" t="str">
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <v>Conjunto senderos del bosque Carrera 22 No 26-08 casa 43</v>
+      </c>
+      <c r="D12" t="str">
+        <v xml:space="preserve">Armenia </v>
+      </c>
+      <c r="E12" t="str">
+        <v>Quindío</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Frente a la caseta comunal  del barrio berlin</v>
+      </c>
+      <c r="G12" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H12" t="str">
+        <v>313 7338934</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J12" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K12" t="str">
+        <v>1</v>
+      </c>
+      <c r="L12" t="str">
+        <v>2021-12-25 20:38:05 -0500</v>
+      </c>
+      <c r="M12" t="str">
+        <v>20</v>
+      </c>
+      <c r="N12" t="str">
+        <v>20</v>
+      </c>
+      <c r="O12" t="str">
+        <v>30</v>
+      </c>
+      <c r="P12" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R12" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S12" t="str">
+        <v/>
+      </c>
+      <c r="T12" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U12" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V12" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W12" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X12" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y12" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>María  Siado Cantillo</v>
+      </c>
+      <c r="B13" t="str">
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <v>Calle 3#7B-35, Barrio Santander</v>
+      </c>
+      <c r="D13" t="str">
+        <v xml:space="preserve">Santa Ana </v>
+      </c>
+      <c r="E13" t="str">
+        <v>Magdalena</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="G13" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H13" t="str">
+        <v>310 6551871</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J13" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K13" t="str">
+        <v>2</v>
+      </c>
+      <c r="L13" t="str">
+        <v>2021-12-25 21:11:15 -0500</v>
+      </c>
+      <c r="M13" t="str">
+        <v>20</v>
+      </c>
+      <c r="N13" t="str">
+        <v>20</v>
+      </c>
+      <c r="O13" t="str">
+        <v>30</v>
+      </c>
+      <c r="P13" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="R13" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="S13" t="str">
+        <v/>
+      </c>
+      <c r="T13" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U13" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V13" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W13" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X13" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y13" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Luz Estella Lopez G.</v>
+      </c>
+      <c r="B14" t="str">
+        <v/>
+      </c>
+      <c r="C14" t="str">
+        <v>Km7 via llanogrande apto 214</v>
+      </c>
+      <c r="D14" t="str">
+        <v xml:space="preserve">Rionegro </v>
+      </c>
+      <c r="E14" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H14" t="str">
+        <v>312 7102304</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J14" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K14" t="str">
+        <v>1</v>
+      </c>
+      <c r="L14" t="str">
+        <v>2021-12-25 21:40:44 -0500</v>
+      </c>
+      <c r="M14" t="str">
+        <v>20</v>
+      </c>
+      <c r="N14" t="str">
+        <v>20</v>
+      </c>
+      <c r="O14" t="str">
+        <v>30</v>
+      </c>
+      <c r="P14" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R14" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S14" t="str">
+        <v/>
+      </c>
+      <c r="T14" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U14" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V14" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W14" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X14" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y14" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Sonia Rosero</v>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <v>Calle 4 #38d-50</v>
+      </c>
+      <c r="D15" t="str">
+        <v xml:space="preserve">Cali </v>
+      </c>
+      <c r="E15" t="str">
+        <v>Valle del Cauca</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Casa puso 2</v>
+      </c>
+      <c r="G15" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H15" t="str">
+        <v>318 5820271</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J15" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K15" t="str">
+        <v>2</v>
+      </c>
+      <c r="L15" t="str">
+        <v>2021-12-25 22:59:40 -0500</v>
+      </c>
+      <c r="M15" t="str">
+        <v>20</v>
+      </c>
+      <c r="N15" t="str">
+        <v>20</v>
+      </c>
+      <c r="O15" t="str">
+        <v>30</v>
+      </c>
+      <c r="P15" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="R15" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="S15" t="str">
+        <v/>
+      </c>
+      <c r="T15" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U15" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V15" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W15" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X15" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y15" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Ariel Montoya Valderrama Montoya valderrama</v>
+      </c>
+      <c r="B16" t="str">
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <v>Calle38A#54-19 baden baden del rio</v>
+      </c>
+      <c r="D16" t="str">
+        <v xml:space="preserve">Rionegro </v>
+      </c>
+      <c r="E16" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Casa 3</v>
+      </c>
+      <c r="G16" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H16" t="str">
+        <v>315 5854188</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J16" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K16" t="str">
+        <v>2</v>
+      </c>
+      <c r="L16" t="str">
+        <v>2021-12-26 04:35:38 -0500</v>
+      </c>
+      <c r="M16" t="str">
+        <v>20</v>
+      </c>
+      <c r="N16" t="str">
+        <v>20</v>
+      </c>
+      <c r="O16" t="str">
+        <v>30</v>
+      </c>
+      <c r="P16" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="R16" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="S16" t="str">
+        <v/>
+      </c>
+      <c r="T16" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U16" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V16" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W16" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X16" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y16" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Alba Galvis</v>
+      </c>
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <v>Carrera 12 10 50</v>
+      </c>
+      <c r="D17" t="str">
+        <v xml:space="preserve">BogotÁ </v>
+      </c>
+      <c r="E17" t="str">
+        <v>Cundinamarca</v>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H17" t="str">
+        <v>311 5177213</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J17" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K17" t="str">
+        <v>2</v>
+      </c>
+      <c r="L17" t="str">
+        <v>2021-12-26 06:41:50 -0500</v>
+      </c>
+      <c r="M17" t="str">
+        <v>20</v>
+      </c>
+      <c r="N17" t="str">
+        <v>20</v>
+      </c>
+      <c r="O17" t="str">
+        <v>30</v>
+      </c>
+      <c r="P17" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="R17" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="S17" t="str">
+        <v/>
+      </c>
+      <c r="T17" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U17" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V17" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W17" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X17" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y17" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>José Ernesto ayala</v>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v>Carrera 6 N 12/85 sur torre 1 apto 1202 novaterra cipres</v>
+      </c>
+      <c r="D18" t="str">
+        <v xml:space="preserve">Mosquera </v>
+      </c>
+      <c r="E18" t="str">
+        <v>Cundinamarca</v>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H18" t="str">
+        <v>310 5527552</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J18" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K18" t="str">
+        <v>1</v>
+      </c>
+      <c r="L18" t="str">
+        <v>2021-12-26 07:34:02 -0500</v>
+      </c>
+      <c r="M18" t="str">
+        <v>20</v>
+      </c>
+      <c r="N18" t="str">
+        <v>20</v>
+      </c>
+      <c r="O18" t="str">
+        <v>30</v>
+      </c>
+      <c r="P18" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R18" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S18" t="str">
+        <v/>
+      </c>
+      <c r="T18" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U18" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V18" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W18" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X18" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y18" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Martha Cecilia  Rodríguez Bayona</v>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v>Cra 14 b # 161-89</v>
+      </c>
+      <c r="D19" t="str">
+        <v xml:space="preserve">Bogota </v>
+      </c>
+      <c r="E19" t="str">
+        <v>Bogotá</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Interior  3 apto 204</v>
+      </c>
+      <c r="G19" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H19" t="str">
+        <v>311 2921819</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J19" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K19" t="str">
+        <v>1</v>
+      </c>
+      <c r="L19" t="str">
+        <v>2021-12-26 10:02:48 -0500</v>
+      </c>
+      <c r="M19" t="str">
+        <v>20</v>
+      </c>
+      <c r="N19" t="str">
+        <v>20</v>
+      </c>
+      <c r="O19" t="str">
+        <v>30</v>
+      </c>
+      <c r="P19" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R19" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S19" t="str">
+        <v/>
+      </c>
+      <c r="T19" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U19" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V19" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W19" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X19" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y19" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Martha Lesmes</v>
+      </c>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v>Carrera7b#1-21 sur</v>
+      </c>
+      <c r="D20" t="str">
+        <v xml:space="preserve">Bogota </v>
+      </c>
+      <c r="E20" t="str">
+        <v>Cundinamarca</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="G20" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H20" t="str">
+        <v>3112045335</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J20" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K20" t="str">
+        <v>2</v>
+      </c>
+      <c r="L20" t="str">
+        <v>2021-12-26 12:51:08 -0500</v>
+      </c>
+      <c r="M20" t="str">
+        <v>20</v>
+      </c>
+      <c r="N20" t="str">
+        <v>20</v>
+      </c>
+      <c r="O20" t="str">
+        <v>30</v>
+      </c>
+      <c r="P20" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="R20" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="S20" t="str">
+        <v/>
+      </c>
+      <c r="T20" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U20" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V20" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W20" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X20" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y20" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Gustavo Granados</v>
+      </c>
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v>Carrera 90A # 8A - 10 torre 1 apto 102</v>
+      </c>
+      <c r="D21" t="str">
+        <v xml:space="preserve">BogotÁ </v>
+      </c>
+      <c r="E21" t="str">
+        <v>Bogotá</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Apartamento 102</v>
+      </c>
+      <c r="G21" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H21" t="str">
+        <v>300 5560061</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J21" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K21" t="str">
+        <v>1</v>
+      </c>
+      <c r="L21" t="str">
+        <v>2021-12-26 21:30:54 -0500</v>
+      </c>
+      <c r="M21" t="str">
+        <v>20</v>
+      </c>
+      <c r="N21" t="str">
+        <v>20</v>
+      </c>
+      <c r="O21" t="str">
+        <v>30</v>
+      </c>
+      <c r="P21" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R21" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S21" t="str">
+        <v/>
+      </c>
+      <c r="T21" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U21" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V21" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W21" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X21" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y21" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Rosa Alvarez</v>
+      </c>
+      <c r="B22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <v>Manzana 1 Casa 20 Urb Girasoles</v>
+      </c>
+      <c r="D22" t="str">
+        <v xml:space="preserve">Cucuta </v>
+      </c>
+      <c r="E22" t="str">
+        <v>Norte de Santander</v>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H22" t="str">
+        <v>312 4338419</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J22" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K22" t="str">
+        <v>1</v>
+      </c>
+      <c r="L22" t="str">
+        <v>2021-12-27 09:15:38 -0500</v>
+      </c>
+      <c r="M22" t="str">
+        <v>20</v>
+      </c>
+      <c r="N22" t="str">
+        <v>20</v>
+      </c>
+      <c r="O22" t="str">
+        <v>30</v>
+      </c>
+      <c r="P22" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R22" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S22" t="str">
+        <v/>
+      </c>
+      <c r="T22" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U22" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V22" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W22" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X22" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y22" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Alvarado sanchez Consuelo</v>
+      </c>
+      <c r="B23" t="str">
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <v>Transversal 75a#83b05</v>
+      </c>
+      <c r="D23" t="str">
+        <v xml:space="preserve">Bogota </v>
+      </c>
+      <c r="E23" t="str">
+        <v>Cundinamarca</v>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H23" t="str">
+        <v>'+57 310 5604028</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J23" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K23" t="str">
+        <v>2</v>
+      </c>
+      <c r="L23" t="str">
+        <v>2021-12-27 17:13:14 -0500</v>
+      </c>
+      <c r="M23" t="str">
+        <v>20</v>
+      </c>
+      <c r="N23" t="str">
+        <v>20</v>
+      </c>
+      <c r="O23" t="str">
+        <v>30</v>
+      </c>
+      <c r="P23" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="R23" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="S23" t="str">
+        <v/>
+      </c>
+      <c r="T23" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U23" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V23" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W23" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X23" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y23" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Román salazar María Azucena</v>
+      </c>
+      <c r="B24" t="str">
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <v>Carrera 13 # 14-42</v>
+      </c>
+      <c r="D24" t="str">
+        <v xml:space="preserve">Manizales </v>
+      </c>
+      <c r="E24" t="str">
+        <v>Caldas</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="G24" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H24" t="str">
+        <v>314 6854558</v>
+      </c>
+      <c r="I24" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J24" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K24" t="str">
+        <v>1</v>
+      </c>
+      <c r="L24" t="str">
+        <v>2021-12-27 17:23:37 -0500</v>
+      </c>
+      <c r="M24" t="str">
+        <v>20</v>
+      </c>
+      <c r="N24" t="str">
+        <v>20</v>
+      </c>
+      <c r="O24" t="str">
+        <v>30</v>
+      </c>
+      <c r="P24" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R24" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S24" t="str">
+        <v/>
+      </c>
+      <c r="T24" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U24" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V24" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W24" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X24" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y24" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>María Teresa Lobo Guardiola</v>
+      </c>
+      <c r="B25" t="str">
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <v>Calle 32 4 90</v>
+      </c>
+      <c r="D25" t="str">
+        <v xml:space="preserve">Santa Marta </v>
+      </c>
+      <c r="E25" t="str">
+        <v>Magdalena</v>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H25" t="str">
+        <v>301 4868000</v>
+      </c>
+      <c r="I25" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J25" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K25" t="str">
+        <v>2</v>
+      </c>
+      <c r="L25" t="str">
+        <v>2021-12-27 18:31:45 -0500</v>
+      </c>
+      <c r="M25" t="str">
+        <v>20</v>
+      </c>
+      <c r="N25" t="str">
+        <v>20</v>
+      </c>
+      <c r="O25" t="str">
+        <v>30</v>
+      </c>
+      <c r="P25" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="R25" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="S25" t="str">
+        <v/>
+      </c>
+      <c r="T25" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U25" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V25" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W25" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X25" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y25" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>María Teresa Lobo Guardiola</v>
+      </c>
+      <c r="B26" t="str">
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <v>Calle 32 4 90</v>
+      </c>
+      <c r="D26" t="str">
+        <v xml:space="preserve">Santa Marta </v>
+      </c>
+      <c r="E26" t="str">
+        <v>Magdalena</v>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H26" t="str">
+        <v>301 4868000</v>
+      </c>
+      <c r="I26" t="str">
+        <v>Cabezal ahorrador de agua</v>
+      </c>
+      <c r="J26" t="str">
+        <v>39900.00</v>
+      </c>
+      <c r="K26" t="str">
+        <v>2</v>
+      </c>
+      <c r="L26" t="str">
+        <v>2021-12-27 18:41:09 -0500</v>
+      </c>
+      <c r="M26" t="str">
+        <v>20</v>
+      </c>
+      <c r="N26" t="str">
+        <v>20</v>
+      </c>
+      <c r="O26" t="str">
+        <v>30</v>
+      </c>
+      <c r="P26" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>69900.00</v>
+      </c>
+      <c r="R26" t="str">
+        <v>69900.00</v>
+      </c>
+      <c r="S26" t="str">
+        <v/>
+      </c>
+      <c r="T26" t="str">
         <v>SI</v>
       </c>
-      <c r="U7" t="str">
-        <v>cra25A#35-56</v>
-      </c>
-      <c r="V7" t="str">
-        <v>itagui</v>
-      </c>
-      <c r="W7" t="str">
-        <v>Antioquia</v>
-      </c>
-      <c r="X7" t="str">
-        <v>Cra. 52c ## 77-61 Piso 2, Itagüi, Antioquia</v>
-      </c>
-      <c r="Y7" t="str">
-        <v>3012564450</v>
+      <c r="U26" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V26" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W26" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X26" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y26" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Olga Romero</v>
+      </c>
+      <c r="B27" t="str">
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <v>Carrera 25A #41-34sur</v>
+      </c>
+      <c r="D27" t="str">
+        <v xml:space="preserve">Bogotá </v>
+      </c>
+      <c r="E27" t="str">
+        <v>Cundinamarca</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="G27" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H27" t="str">
+        <v>3142731434</v>
+      </c>
+      <c r="I27" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J27" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K27" t="str">
+        <v>1</v>
+      </c>
+      <c r="L27" t="str">
+        <v>2021-12-27 22:20:37 -0500</v>
+      </c>
+      <c r="M27" t="str">
+        <v>20</v>
+      </c>
+      <c r="N27" t="str">
+        <v>20</v>
+      </c>
+      <c r="O27" t="str">
+        <v>30</v>
+      </c>
+      <c r="P27" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R27" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S27" t="str">
+        <v/>
+      </c>
+      <c r="T27" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U27" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V27" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W27" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X27" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y27" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Lucero Medina</v>
+      </c>
+      <c r="B28" t="str">
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <v>Cra. 86#42c54 La america</v>
+      </c>
+      <c r="D28" t="str">
+        <v xml:space="preserve">Medellin </v>
+      </c>
+      <c r="E28" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Casa segundo piso</v>
+      </c>
+      <c r="G28" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H28" t="str">
+        <v>312 2172430</v>
+      </c>
+      <c r="I28" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J28" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K28" t="str">
+        <v>1</v>
+      </c>
+      <c r="L28" t="str">
+        <v>2021-12-28 00:29:59 -0500</v>
+      </c>
+      <c r="M28" t="str">
+        <v>20</v>
+      </c>
+      <c r="N28" t="str">
+        <v>20</v>
+      </c>
+      <c r="O28" t="str">
+        <v>30</v>
+      </c>
+      <c r="P28" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R28" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S28" t="str">
+        <v/>
+      </c>
+      <c r="T28" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U28" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V28" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W28" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X28" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y28" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Oscar Mauricio  Sánchez Vanegas</v>
+      </c>
+      <c r="B29" t="str">
+        <v/>
+      </c>
+      <c r="C29" t="str">
+        <v>Carrera 3 #5-77</v>
+      </c>
+      <c r="D29" t="str">
+        <v xml:space="preserve">Barichara </v>
+      </c>
+      <c r="E29" t="str">
+        <v>Santander</v>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H29" t="str">
+        <v>3156790672</v>
+      </c>
+      <c r="I29" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J29" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K29" t="str">
+        <v>1</v>
+      </c>
+      <c r="L29" t="str">
+        <v>2021-12-28 06:20:38 -0500</v>
+      </c>
+      <c r="M29" t="str">
+        <v>20</v>
+      </c>
+      <c r="N29" t="str">
+        <v>20</v>
+      </c>
+      <c r="O29" t="str">
+        <v>30</v>
+      </c>
+      <c r="P29" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R29" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S29" t="str">
+        <v/>
+      </c>
+      <c r="T29" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U29" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V29" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W29" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X29" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y29" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Dora luz Gonzalez</v>
+      </c>
+      <c r="B30" t="str">
+        <v/>
+      </c>
+      <c r="C30" t="str">
+        <v>Diagonal 25f 19-82</v>
+      </c>
+      <c r="D30" t="str">
+        <v xml:space="preserve">Dosquebradas </v>
+      </c>
+      <c r="E30" t="str">
+        <v>Risaralda</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Casa 73 conjunto reservas de milan</v>
+      </c>
+      <c r="G30" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H30" t="str">
+        <v>310 8314098</v>
+      </c>
+      <c r="I30" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J30" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K30" t="str">
+        <v>1</v>
+      </c>
+      <c r="L30" t="str">
+        <v>2021-12-28 07:50:06 -0500</v>
+      </c>
+      <c r="M30" t="str">
+        <v>20</v>
+      </c>
+      <c r="N30" t="str">
+        <v>20</v>
+      </c>
+      <c r="O30" t="str">
+        <v>30</v>
+      </c>
+      <c r="P30" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R30" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S30" t="str">
+        <v/>
+      </c>
+      <c r="T30" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U30" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V30" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W30" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X30" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y30" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Carlos Castellanos</v>
+      </c>
+      <c r="B31" t="str">
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <v>Cra109 a#150-79</v>
+      </c>
+      <c r="D31" t="str">
+        <v xml:space="preserve">Bogotá </v>
+      </c>
+      <c r="E31" t="str">
+        <v>Bogotá</v>
+      </c>
+      <c r="F31" t="str">
+        <v>Torre 3 apt 605</v>
+      </c>
+      <c r="G31" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H31" t="str">
+        <v>301 5743949</v>
+      </c>
+      <c r="I31" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J31" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K31" t="str">
+        <v>2</v>
+      </c>
+      <c r="L31" t="str">
+        <v>2021-12-28 09:06:26 -0500</v>
+      </c>
+      <c r="M31" t="str">
+        <v>20</v>
+      </c>
+      <c r="N31" t="str">
+        <v>20</v>
+      </c>
+      <c r="O31" t="str">
+        <v>30</v>
+      </c>
+      <c r="P31" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="R31" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="S31" t="str">
+        <v/>
+      </c>
+      <c r="T31" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U31" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V31" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W31" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X31" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y31" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Federico Echeverry</v>
+      </c>
+      <c r="B32" t="str">
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <v>Calle 144#22-15</v>
+      </c>
+      <c r="D32" t="str">
+        <v xml:space="preserve">Bogotá </v>
+      </c>
+      <c r="E32" t="str">
+        <v>Bogotá</v>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H32" t="str">
+        <v>322 9101431</v>
+      </c>
+      <c r="I32" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J32" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K32" t="str">
+        <v>1</v>
+      </c>
+      <c r="L32" t="str">
+        <v>2021-12-28 09:50:09 -0500</v>
+      </c>
+      <c r="M32" t="str">
+        <v>20</v>
+      </c>
+      <c r="N32" t="str">
+        <v>20</v>
+      </c>
+      <c r="O32" t="str">
+        <v>30</v>
+      </c>
+      <c r="P32" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R32" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S32" t="str">
+        <v/>
+      </c>
+      <c r="T32" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U32" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V32" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W32" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X32" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y32" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Deiby Añez</v>
+      </c>
+      <c r="B33" t="str">
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <v>Calle 29k 21c 21</v>
+      </c>
+      <c r="D33" t="str">
+        <v xml:space="preserve">Santa marta </v>
+      </c>
+      <c r="E33" t="str">
+        <v>Magdalena</v>
+      </c>
+      <c r="F33" t="str">
+        <v>-</v>
+      </c>
+      <c r="G33" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H33" t="str">
+        <v>+573205673412</v>
+      </c>
+      <c r="I33" t="str">
+        <v>Cabezal de Grifo 720°</v>
+      </c>
+      <c r="J33" t="str">
+        <v>59000.00</v>
+      </c>
+      <c r="K33" t="str">
+        <v>1</v>
+      </c>
+      <c r="L33" t="str">
+        <v>2021-12-28 10:39:47 -0500</v>
+      </c>
+      <c r="M33" t="str">
+        <v>20</v>
+      </c>
+      <c r="N33" t="str">
+        <v>20</v>
+      </c>
+      <c r="O33" t="str">
+        <v>30</v>
+      </c>
+      <c r="P33" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="str">
+        <v>59000.00</v>
+      </c>
+      <c r="R33" t="str">
+        <v>59000.00</v>
+      </c>
+      <c r="S33" t="str">
+        <v/>
+      </c>
+      <c r="T33" t="str">
+        <v>SI</v>
+      </c>
+      <c r="U33" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V33" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W33" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X33" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y33" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Oscar Rico Ricardo</v>
+      </c>
+      <c r="B34" t="str">
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <v>Carrera 24 No. 35-47</v>
+      </c>
+      <c r="D34" t="str">
+        <v xml:space="preserve">Calarca </v>
+      </c>
+      <c r="E34" t="str">
+        <v>Quindío</v>
+      </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H34" t="str">
+        <v>310 4127397</v>
+      </c>
+      <c r="I34" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J34" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K34" t="str">
+        <v>1</v>
+      </c>
+      <c r="L34" t="str">
+        <v>2021-12-28 13:30:53 -0500</v>
+      </c>
+      <c r="M34" t="str">
+        <v>20</v>
+      </c>
+      <c r="N34" t="str">
+        <v>20</v>
+      </c>
+      <c r="O34" t="str">
+        <v>30</v>
+      </c>
+      <c r="P34" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R34" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S34" t="str">
+        <v/>
+      </c>
+      <c r="T34" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U34" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V34" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W34" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X34" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y34" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Katia  Gómez</v>
+      </c>
+      <c r="B35" t="str">
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <v>Urbanización Santa Ana</v>
+      </c>
+      <c r="D35" t="str">
+        <v xml:space="preserve">TURBACO </v>
+      </c>
+      <c r="E35" t="str">
+        <v>Bolívar</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Manzana 6 casa 3</v>
+      </c>
+      <c r="G35" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H35" t="str">
+        <v>311 3952255</v>
+      </c>
+      <c r="I35" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J35" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K35" t="str">
+        <v>1</v>
+      </c>
+      <c r="L35" t="str">
+        <v>2021-12-28 14:26:19 -0500</v>
+      </c>
+      <c r="M35" t="str">
+        <v>20</v>
+      </c>
+      <c r="N35" t="str">
+        <v>20</v>
+      </c>
+      <c r="O35" t="str">
+        <v>30</v>
+      </c>
+      <c r="P35" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R35" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S35" t="str">
+        <v/>
+      </c>
+      <c r="T35" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U35" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V35" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W35" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X35" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y35" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Monika Achury</v>
+      </c>
+      <c r="B36" t="str">
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <v>Vía restrepo entrada  el cairo km 2.5 reserva de la castellana Casa 39</v>
+      </c>
+      <c r="D36" t="str">
+        <v xml:space="preserve">Villavicencio </v>
+      </c>
+      <c r="E36" t="str">
+        <v>Meta</v>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H36" t="str">
+        <v>3153491650</v>
+      </c>
+      <c r="I36" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J36" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K36" t="str">
+        <v>3</v>
+      </c>
+      <c r="L36" t="str">
+        <v>2021-12-28 14:47:44 -0500</v>
+      </c>
+      <c r="M36" t="str">
+        <v>20</v>
+      </c>
+      <c r="N36" t="str">
+        <v>20</v>
+      </c>
+      <c r="O36" t="str">
+        <v>30</v>
+      </c>
+      <c r="P36" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="str">
+        <v>89700.00</v>
+      </c>
+      <c r="R36" t="str">
+        <v>89700.00</v>
+      </c>
+      <c r="S36" t="str">
+        <v/>
+      </c>
+      <c r="T36" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U36" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V36" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W36" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X36" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y36" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Deiby Añez</v>
+      </c>
+      <c r="B37" t="str">
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <v>Calle 29k 21c 21</v>
+      </c>
+      <c r="D37" t="str">
+        <v xml:space="preserve">Santa marta </v>
+      </c>
+      <c r="E37" t="str">
+        <v>Magdalena</v>
+      </c>
+      <c r="F37" t="str">
+        <v>-</v>
+      </c>
+      <c r="G37" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H37" t="str">
+        <v>+573205673412</v>
+      </c>
+      <c r="I37" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J37" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K37" t="str">
+        <v>1</v>
+      </c>
+      <c r="L37" t="str">
+        <v>2021-12-28 17:09:18 -0500</v>
+      </c>
+      <c r="M37" t="str">
+        <v>20</v>
+      </c>
+      <c r="N37" t="str">
+        <v>20</v>
+      </c>
+      <c r="O37" t="str">
+        <v>30</v>
+      </c>
+      <c r="P37" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R37" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S37" t="str">
+        <v/>
+      </c>
+      <c r="T37" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U37" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V37" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W37" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X37" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y37" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Deiby Añez</v>
+      </c>
+      <c r="B38" t="str">
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <v>Calle 29k 21c 21</v>
+      </c>
+      <c r="D38" t="str">
+        <v xml:space="preserve">Santa marta </v>
+      </c>
+      <c r="E38" t="str">
+        <v>Magdalena</v>
+      </c>
+      <c r="F38" t="str">
+        <v>-</v>
+      </c>
+      <c r="G38" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H38" t="str">
+        <v>+573205673412</v>
+      </c>
+      <c r="I38" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J38" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K38" t="str">
+        <v>1</v>
+      </c>
+      <c r="L38" t="str">
+        <v>2021-12-28 17:14:02 -0500</v>
+      </c>
+      <c r="M38" t="str">
+        <v>20</v>
+      </c>
+      <c r="N38" t="str">
+        <v>20</v>
+      </c>
+      <c r="O38" t="str">
+        <v>30</v>
+      </c>
+      <c r="P38" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R38" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S38" t="str">
+        <v/>
+      </c>
+      <c r="T38" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U38" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V38" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W38" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X38" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y38" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Deiby Añez</v>
+      </c>
+      <c r="B39" t="str">
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <v>Calle 29k 21c 21</v>
+      </c>
+      <c r="D39" t="str">
+        <v xml:space="preserve">Santa marta </v>
+      </c>
+      <c r="E39" t="str">
+        <v>Magdalena</v>
+      </c>
+      <c r="F39" t="str">
+        <v>-</v>
+      </c>
+      <c r="G39" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H39" t="str">
+        <v>+573205673412</v>
+      </c>
+      <c r="I39" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J39" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K39" t="str">
+        <v>1</v>
+      </c>
+      <c r="L39" t="str">
+        <v>2021-12-28 17:25:11 -0500</v>
+      </c>
+      <c r="M39" t="str">
+        <v>20</v>
+      </c>
+      <c r="N39" t="str">
+        <v>20</v>
+      </c>
+      <c r="O39" t="str">
+        <v>30</v>
+      </c>
+      <c r="P39" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R39" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S39" t="str">
+        <v/>
+      </c>
+      <c r="T39" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U39" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V39" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W39" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X39" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y39" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Ivan Corzo</v>
+      </c>
+      <c r="B40" t="str">
+        <v/>
+      </c>
+      <c r="C40" t="str">
+        <v>Carrera 35# 50-48</v>
+      </c>
+      <c r="D40" t="str">
+        <v xml:space="preserve">Barranquilla </v>
+      </c>
+      <c r="E40" t="str">
+        <v>Atlántico</v>
+      </c>
+      <c r="F40" t="str">
+        <v>-</v>
+      </c>
+      <c r="G40" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H40" t="str">
+        <v>+573014118327</v>
+      </c>
+      <c r="I40" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J40" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K40" t="str">
+        <v>1</v>
+      </c>
+      <c r="L40" t="str">
+        <v>2021-12-28 19:53:08 -0500</v>
+      </c>
+      <c r="M40" t="str">
+        <v>20</v>
+      </c>
+      <c r="N40" t="str">
+        <v>20</v>
+      </c>
+      <c r="O40" t="str">
+        <v>30</v>
+      </c>
+      <c r="P40" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R40" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S40" t="str">
+        <v/>
+      </c>
+      <c r="T40" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U40" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V40" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W40" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X40" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y40" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Jackeline Pulido</v>
+      </c>
+      <c r="B41" t="str">
+        <v/>
+      </c>
+      <c r="C41" t="str">
+        <v>Calle 1 No 10 - 107</v>
+      </c>
+      <c r="D41" t="str">
+        <v xml:space="preserve">Sogamoso </v>
+      </c>
+      <c r="E41" t="str">
+        <v>Boyacá</v>
+      </c>
+      <c r="F41" t="str">
+        <v>-</v>
+      </c>
+      <c r="G41" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H41" t="str">
+        <v>+573115463711</v>
+      </c>
+      <c r="I41" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J41" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K41" t="str">
+        <v>1</v>
+      </c>
+      <c r="L41" t="str">
+        <v>2021-12-28 20:49:16 -0500</v>
+      </c>
+      <c r="M41" t="str">
+        <v>20</v>
+      </c>
+      <c r="N41" t="str">
+        <v>20</v>
+      </c>
+      <c r="O41" t="str">
+        <v>30</v>
+      </c>
+      <c r="P41" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R41" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S41" t="str">
+        <v/>
+      </c>
+      <c r="T41" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U41" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V41" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W41" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X41" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y41" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Jorge Eliecer Diaz Leyton</v>
+      </c>
+      <c r="B42" t="str">
+        <v/>
+      </c>
+      <c r="C42" t="str">
+        <v>Calle 62N #3B Bis-43, Apartamento 201</v>
+      </c>
+      <c r="D42" t="str">
+        <v xml:space="preserve">Cali </v>
+      </c>
+      <c r="E42" t="str">
+        <v>Valle del Cauca</v>
+      </c>
+      <c r="F42" t="str">
+        <v>-</v>
+      </c>
+      <c r="G42" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H42" t="str">
+        <v>+573137524924</v>
+      </c>
+      <c r="I42" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J42" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K42" t="str">
+        <v>1</v>
+      </c>
+      <c r="L42" t="str">
+        <v>2021-12-28 23:51:28 -0500</v>
+      </c>
+      <c r="M42" t="str">
+        <v>20</v>
+      </c>
+      <c r="N42" t="str">
+        <v>20</v>
+      </c>
+      <c r="O42" t="str">
+        <v>30</v>
+      </c>
+      <c r="P42" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q42" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R42" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S42" t="str">
+        <v/>
+      </c>
+      <c r="T42" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U42" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V42" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W42" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X42" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y42" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Alejandro Gonzalez</v>
+      </c>
+      <c r="B43" t="str">
+        <v/>
+      </c>
+      <c r="C43" t="str">
+        <v>Cra. 17 # 71- 49 local 1</v>
+      </c>
+      <c r="D43" t="str">
+        <v xml:space="preserve">Bogota </v>
+      </c>
+      <c r="E43" t="str">
+        <v>Cundinamarca</v>
+      </c>
+      <c r="F43" t="str">
+        <v>-</v>
+      </c>
+      <c r="G43" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H43" t="str">
+        <v>+573173182696</v>
+      </c>
+      <c r="I43" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J43" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K43" t="str">
+        <v>2</v>
+      </c>
+      <c r="L43" t="str">
+        <v>2021-12-29 05:53:56 -0500</v>
+      </c>
+      <c r="M43" t="str">
+        <v>20</v>
+      </c>
+      <c r="N43" t="str">
+        <v>20</v>
+      </c>
+      <c r="O43" t="str">
+        <v>30</v>
+      </c>
+      <c r="P43" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="str">
+        <v>59800.00</v>
+      </c>
+      <c r="R43" t="str">
+        <v>59800.00</v>
+      </c>
+      <c r="S43" t="str">
+        <v/>
+      </c>
+      <c r="T43" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U43" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V43" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W43" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X43" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y43" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Alejandro  Gonzalez Mojica</v>
+      </c>
+      <c r="B44" t="str">
+        <v/>
+      </c>
+      <c r="C44" t="str">
+        <v>Cra 17 #71- 49</v>
+      </c>
+      <c r="D44" t="str">
+        <v xml:space="preserve">Bogotá </v>
+      </c>
+      <c r="E44" t="str">
+        <v>Bogotá</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Local 1</v>
+      </c>
+      <c r="G44" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H44" t="str">
+        <v>317 3182696</v>
+      </c>
+      <c r="I44" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J44" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K44" t="str">
+        <v>2</v>
+      </c>
+      <c r="L44" t="str">
+        <v>2021-12-29 05:57:02 -0500</v>
+      </c>
+      <c r="M44" t="str">
+        <v>20</v>
+      </c>
+      <c r="N44" t="str">
+        <v>20</v>
+      </c>
+      <c r="O44" t="str">
+        <v>30</v>
+      </c>
+      <c r="P44" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="R44" t="str">
+        <v>49900.00</v>
+      </c>
+      <c r="S44" t="str">
+        <v/>
+      </c>
+      <c r="T44" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U44" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V44" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W44" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X44" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y44" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Adriana  Cuartas</v>
+      </c>
+      <c r="B45" t="str">
+        <v/>
+      </c>
+      <c r="C45" t="str">
+        <v>Calle 12  su # 25 12</v>
+      </c>
+      <c r="D45" t="str">
+        <v xml:space="preserve">Medellin </v>
+      </c>
+      <c r="E45" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="F45" t="str">
+        <v>304</v>
+      </c>
+      <c r="G45" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H45" t="str">
+        <v>315 4529295</v>
+      </c>
+      <c r="I45" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J45" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K45" t="str">
+        <v>3</v>
+      </c>
+      <c r="L45" t="str">
+        <v>2021-12-29 06:02:17 -0500</v>
+      </c>
+      <c r="M45" t="str">
+        <v>20</v>
+      </c>
+      <c r="N45" t="str">
+        <v>20</v>
+      </c>
+      <c r="O45" t="str">
+        <v>30</v>
+      </c>
+      <c r="P45" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="str">
+        <v>64900.00</v>
+      </c>
+      <c r="R45" t="str">
+        <v>64900.00</v>
+      </c>
+      <c r="S45" t="str">
+        <v/>
+      </c>
+      <c r="T45" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U45" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V45" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W45" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X45" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y45" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Jenny Bohórquez</v>
+      </c>
+      <c r="B46" t="str">
+        <v/>
+      </c>
+      <c r="C46" t="str">
+        <v>Vda Bojaca sector la estrella alcázares 1 casa 21</v>
+      </c>
+      <c r="D46" t="str">
+        <v xml:space="preserve">Chía </v>
+      </c>
+      <c r="E46" t="str">
+        <v>Cundinamarca</v>
+      </c>
+      <c r="F46" t="str">
+        <v>-</v>
+      </c>
+      <c r="G46" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H46" t="str">
+        <v>+573118597158</v>
+      </c>
+      <c r="I46" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J46" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K46" t="str">
+        <v>1</v>
+      </c>
+      <c r="L46" t="str">
+        <v>2021-12-29 06:59:41 -0500</v>
+      </c>
+      <c r="M46" t="str">
+        <v>20</v>
+      </c>
+      <c r="N46" t="str">
+        <v>20</v>
+      </c>
+      <c r="O46" t="str">
+        <v>30</v>
+      </c>
+      <c r="P46" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R46" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S46" t="str">
+        <v/>
+      </c>
+      <c r="T46" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U46" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V46" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W46" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X46" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y46" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Liliana Urueta velez</v>
+      </c>
+      <c r="B47" t="str">
+        <v/>
+      </c>
+      <c r="C47" t="str">
+        <v>Calle 12 # 7-28 casa 4 esquina</v>
+      </c>
+      <c r="D47" t="str">
+        <v xml:space="preserve">Ciénaga </v>
+      </c>
+      <c r="E47" t="str">
+        <v>Magdalena</v>
+      </c>
+      <c r="F47" t="str">
+        <v>-</v>
+      </c>
+      <c r="G47" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H47" t="str">
+        <v>+573017089161</v>
+      </c>
+      <c r="I47" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J47" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K47" t="str">
+        <v>1</v>
+      </c>
+      <c r="L47" t="str">
+        <v>2021-12-29 07:04:22 -0500</v>
+      </c>
+      <c r="M47" t="str">
+        <v>20</v>
+      </c>
+      <c r="N47" t="str">
+        <v>20</v>
+      </c>
+      <c r="O47" t="str">
+        <v>30</v>
+      </c>
+      <c r="P47" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R47" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S47" t="str">
+        <v/>
+      </c>
+      <c r="T47" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U47" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V47" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W47" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X47" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y47" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Jorge Jaime</v>
+      </c>
+      <c r="B48" t="str">
+        <v/>
+      </c>
+      <c r="C48" t="str">
+        <v>Carrera 38C # 74B-125</v>
+      </c>
+      <c r="D48" t="str">
+        <v xml:space="preserve">Barranquilla </v>
+      </c>
+      <c r="E48" t="str">
+        <v>Atlántico</v>
+      </c>
+      <c r="F48" t="str">
+        <v>-</v>
+      </c>
+      <c r="G48" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H48" t="str">
+        <v>+573003242136</v>
+      </c>
+      <c r="I48" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J48" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K48" t="str">
+        <v>1</v>
+      </c>
+      <c r="L48" t="str">
+        <v>2021-12-29 07:37:11 -0500</v>
+      </c>
+      <c r="M48" t="str">
+        <v>20</v>
+      </c>
+      <c r="N48" t="str">
+        <v>20</v>
+      </c>
+      <c r="O48" t="str">
+        <v>30</v>
+      </c>
+      <c r="P48" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R48" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S48" t="str">
+        <v/>
+      </c>
+      <c r="T48" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U48" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V48" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W48" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X48" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y48" t="str">
+        <v>3012658852</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Fuentes Nancy</v>
+      </c>
+      <c r="B49" t="str">
+        <v/>
+      </c>
+      <c r="C49" t="str">
+        <v>Calle 26b 4 29 apto.503</v>
+      </c>
+      <c r="D49" t="str">
+        <v xml:space="preserve">Bogota </v>
+      </c>
+      <c r="E49" t="str">
+        <v>Bogotá</v>
+      </c>
+      <c r="F49" t="str">
+        <v>-</v>
+      </c>
+      <c r="G49" t="str">
+        <v>servientrega</v>
+      </c>
+      <c r="H49" t="str">
+        <v>+573125228485</v>
+      </c>
+      <c r="I49" t="str">
+        <v>Cabezal ahorradora de agua de 360° Grados</v>
+      </c>
+      <c r="J49" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="K49" t="str">
+        <v>1</v>
+      </c>
+      <c r="L49" t="str">
+        <v>2021-12-29 08:09:11 -0500</v>
+      </c>
+      <c r="M49" t="str">
+        <v>20</v>
+      </c>
+      <c r="N49" t="str">
+        <v>20</v>
+      </c>
+      <c r="O49" t="str">
+        <v>30</v>
+      </c>
+      <c r="P49" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="R49" t="str">
+        <v>29900.00</v>
+      </c>
+      <c r="S49" t="str">
+        <v/>
+      </c>
+      <c r="T49" t="str">
+        <v>NO</v>
+      </c>
+      <c r="U49" t="str">
+        <v>cra26A#35-56</v>
+      </c>
+      <c r="V49" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="W49" t="str">
+        <v>Antioquia</v>
+      </c>
+      <c r="X49" t="str">
+        <v>El poblado</v>
+      </c>
+      <c r="Y49" t="str">
+        <v>3012658852</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Y7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Y49"/>
   </ignoredErrors>
 </worksheet>
 </file>